--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_25_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_25_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2391508.195776212</v>
+        <v>2390874.983920083</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5808968.500444941</v>
+        <v>5808968.500444951</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058546</v>
+        <v>632041.4518058551</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>37.42873756868511</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="H11" t="n">
-        <v>42.49402539587322</v>
+        <v>12.71192971168186</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.77962454394833</v>
+        <v>2.779624543948398</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>24.71680785700315</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>11.7929620084729</v>
+        <v>11.79296200847293</v>
       </c>
       <c r="V12" t="n">
-        <v>15.2127339454083</v>
+        <v>15.21273394540833</v>
       </c>
       <c r="W12" t="n">
-        <v>41.26839660701765</v>
+        <v>41.26839660701768</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>10.24158724936752</v>
+        <v>10.24158724936756</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="V13" t="n">
-        <v>19.67282821445596</v>
+        <v>19.67282821445599</v>
       </c>
       <c r="W13" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>42.49402539587322</v>
+        <v>37.42873756868496</v>
       </c>
       <c r="H14" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.779624543948369</v>
+        <v>2.779624543948341</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>37.42873756868512</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>10.24158724936753</v>
+        <v>10.24158724936752</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="V16" t="n">
         <v>19.67282821445596</v>
       </c>
       <c r="W16" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1844,19 +1844,19 @@
         <v>36.19077655206644</v>
       </c>
       <c r="C17" t="n">
-        <v>12.30903355541193</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2195330058381318</v>
+        <v>33.58244823586926</v>
       </c>
       <c r="F17" t="n">
-        <v>42.49402539587322</v>
+        <v>21.44014372125391</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="H17" t="n">
         <v>9.438999912589679</v>
@@ -1910,7 +1910,7 @@
         <v>21.88625046893924</v>
       </c>
       <c r="Y17" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.225317717443143</v>
+        <v>36.19077655206644</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>21.96756647383978</v>
       </c>
       <c r="F20" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="G20" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>9.438999912589679</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>21.88625046893924</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587305</v>
       </c>
     </row>
     <row r="21">
@@ -2330,7 +2330,7 @@
         <v>65.30278581424659</v>
       </c>
       <c r="G23" t="n">
-        <v>77.40126617658943</v>
+        <v>77.40126617658959</v>
       </c>
       <c r="H23" t="n">
         <v>9.438999912589679</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>137.2320734133373</v>
+        <v>137.2320734133372</v>
       </c>
       <c r="C26" t="n">
-        <v>113.3503304166828</v>
+        <v>113.3503304166827</v>
       </c>
       <c r="D26" t="n">
-        <v>100.9169926777313</v>
+        <v>100.9169926777312</v>
       </c>
       <c r="E26" t="n">
-        <v>134.6237450971402</v>
+        <v>134.62374509714</v>
       </c>
       <c r="F26" t="n">
-        <v>166.3440826755175</v>
+        <v>166.3440826755174</v>
       </c>
       <c r="G26" t="n">
-        <v>182.013672677494</v>
+        <v>182.0136726774939</v>
       </c>
       <c r="H26" t="n">
-        <v>110.4802967738602</v>
+        <v>110.4802967738605</v>
       </c>
       <c r="I26" t="n">
-        <v>5.336879406292724</v>
+        <v>5.33687940629261</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>13.29782786250107</v>
+        <v>13.29782786250096</v>
       </c>
       <c r="V26" t="n">
-        <v>84.02461664465602</v>
+        <v>84.02461664465591</v>
       </c>
       <c r="W26" t="n">
-        <v>101.0412968612709</v>
+        <v>101.0412968612708</v>
       </c>
       <c r="X26" t="n">
-        <v>122.9275473302101</v>
+        <v>122.92754733021</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.4304004539539</v>
+        <v>145.4304004539538</v>
       </c>
     </row>
     <row r="27">
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.3739820139708508</v>
+        <v>0.3739820139707371</v>
       </c>
       <c r="V27" t="n">
-        <v>3.79375395090625</v>
+        <v>3.793753950906137</v>
       </c>
       <c r="W27" t="n">
-        <v>29.8494166125156</v>
+        <v>29.84941661251548</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>51.80214033224858</v>
+        <v>51.80214033224846</v>
       </c>
       <c r="V28" t="n">
-        <v>8.253848219953909</v>
+        <v>8.253848219953795</v>
       </c>
       <c r="W28" t="n">
-        <v>53.45554012483933</v>
+        <v>53.45554012483922</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>137.2320734133373</v>
+        <v>137.2320734133371</v>
       </c>
       <c r="C29" t="n">
-        <v>113.3503304166828</v>
+        <v>113.3503304166826</v>
       </c>
       <c r="D29" t="n">
-        <v>100.9169926777313</v>
+        <v>100.9169926777311</v>
       </c>
       <c r="E29" t="n">
-        <v>134.6237450971402</v>
+        <v>134.6237450971399</v>
       </c>
       <c r="F29" t="n">
-        <v>166.3440826755175</v>
+        <v>166.3440826755173</v>
       </c>
       <c r="G29" t="n">
-        <v>182.013672677494</v>
+        <v>182.0136726774938</v>
       </c>
       <c r="H29" t="n">
-        <v>110.4802967738606</v>
+        <v>110.4802967738604</v>
       </c>
       <c r="I29" t="n">
-        <v>5.336879406292724</v>
+        <v>5.336879406292496</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,19 +2846,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>13.29782786250107</v>
+        <v>13.29782786250085</v>
       </c>
       <c r="V29" t="n">
-        <v>84.02461664465602</v>
+        <v>84.02461664465579</v>
       </c>
       <c r="W29" t="n">
-        <v>101.0412968612709</v>
+        <v>101.0412968612707</v>
       </c>
       <c r="X29" t="n">
-        <v>122.9275473302101</v>
+        <v>122.9275473302099</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.4304004539539</v>
+        <v>145.4304004539537</v>
       </c>
     </row>
     <row r="30">
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0.3739820139708508</v>
+        <v>0.3739820139706234</v>
       </c>
       <c r="V30" t="n">
-        <v>3.79375395090625</v>
+        <v>3.793753950906023</v>
       </c>
       <c r="W30" t="n">
-        <v>29.8494166125156</v>
+        <v>29.84941661251537</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3004,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>51.80214033224858</v>
+        <v>51.80214033224835</v>
       </c>
       <c r="V31" t="n">
-        <v>8.253848219953909</v>
+        <v>8.253848219953682</v>
       </c>
       <c r="W31" t="n">
-        <v>53.45554012483933</v>
+        <v>53.4555401248391</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3032,22 +3032,22 @@
         <v>113.3503304166827</v>
       </c>
       <c r="D32" t="n">
-        <v>100.9169926777312</v>
+        <v>100.9169926777311</v>
       </c>
       <c r="E32" t="n">
-        <v>134.6237450971401</v>
+        <v>134.62374509714</v>
       </c>
       <c r="F32" t="n">
-        <v>166.3440826755174</v>
+        <v>166.3440826755173</v>
       </c>
       <c r="G32" t="n">
-        <v>182.0136726774939</v>
+        <v>182.0136726774938</v>
       </c>
       <c r="H32" t="n">
-        <v>110.4802967738605</v>
+        <v>110.4802967738604</v>
       </c>
       <c r="I32" t="n">
-        <v>5.336879406292638</v>
+        <v>5.336879406292553</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>13.29782786250098</v>
+        <v>13.2978278625009</v>
       </c>
       <c r="V32" t="n">
-        <v>84.02461664465594</v>
+        <v>84.02461664465585</v>
       </c>
       <c r="W32" t="n">
-        <v>101.0412968612708</v>
+        <v>101.0412968612707</v>
       </c>
       <c r="X32" t="n">
         <v>122.92754733021</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.4304004539538</v>
+        <v>145.4304004539537</v>
       </c>
     </row>
     <row r="33">
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.3739820139707655</v>
+        <v>0.3739820139706803</v>
       </c>
       <c r="V33" t="n">
-        <v>3.793753950906165</v>
+        <v>3.79375395090608</v>
       </c>
       <c r="W33" t="n">
-        <v>29.84941661251551</v>
+        <v>29.84941661251543</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>51.80214033224849</v>
+        <v>51.80214033224841</v>
       </c>
       <c r="V34" t="n">
-        <v>8.253848219953824</v>
+        <v>8.253848219953738</v>
       </c>
       <c r="W34" t="n">
-        <v>53.45554012483925</v>
+        <v>53.45554012483916</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>123.9342455508363</v>
+        <v>123.9342455508362</v>
       </c>
       <c r="C35" t="n">
-        <v>100.0525025541818</v>
+        <v>100.0525025541817</v>
       </c>
       <c r="D35" t="n">
-        <v>87.61916481523022</v>
+        <v>87.61916481523014</v>
       </c>
       <c r="E35" t="n">
-        <v>121.3259172346391</v>
+        <v>121.325917234639</v>
       </c>
       <c r="F35" t="n">
-        <v>153.0462548130164</v>
+        <v>153.0462548130163</v>
       </c>
       <c r="G35" t="n">
-        <v>168.715844814993</v>
+        <v>168.7158448149929</v>
       </c>
       <c r="H35" t="n">
-        <v>97.18246891135951</v>
+        <v>97.18246891135942</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>70.72678878215496</v>
+        <v>70.72678878215487</v>
       </c>
       <c r="W35" t="n">
-        <v>87.74346899876983</v>
+        <v>87.74346899876974</v>
       </c>
       <c r="X35" t="n">
-        <v>109.6297194677091</v>
+        <v>109.629719467709</v>
       </c>
       <c r="Y35" t="n">
-        <v>132.1325725914528</v>
+        <v>132.1325725914527</v>
       </c>
     </row>
     <row r="36">
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>16.55158875001453</v>
+        <v>16.55158875001445</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>38.50431246974751</v>
+        <v>38.50431246974743</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>40.15771226233826</v>
+        <v>40.15771226233818</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>123.9342455508363</v>
+        <v>123.9342455508362</v>
       </c>
       <c r="C38" t="n">
-        <v>100.0525025541818</v>
+        <v>100.0525025541817</v>
       </c>
       <c r="D38" t="n">
-        <v>87.61916481523022</v>
+        <v>87.61916481523014</v>
       </c>
       <c r="E38" t="n">
-        <v>121.3259172346391</v>
+        <v>121.325917234639</v>
       </c>
       <c r="F38" t="n">
-        <v>153.0462548130164</v>
+        <v>153.0462548130163</v>
       </c>
       <c r="G38" t="n">
-        <v>168.715844814993</v>
+        <v>168.7158448149929</v>
       </c>
       <c r="H38" t="n">
-        <v>97.18246891135951</v>
+        <v>97.18246891135942</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>70.72678878215496</v>
+        <v>70.72678878215487</v>
       </c>
       <c r="W38" t="n">
-        <v>87.74346899876983</v>
+        <v>87.74346899876974</v>
       </c>
       <c r="X38" t="n">
-        <v>109.6297194677091</v>
+        <v>109.629719467709</v>
       </c>
       <c r="Y38" t="n">
-        <v>132.1325725914528</v>
+        <v>132.1325725914527</v>
       </c>
     </row>
     <row r="39">
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>16.55158875001453</v>
+        <v>16.55158875001445</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>38.50431246974751</v>
+        <v>38.50431246974743</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>40.15771226233826</v>
+        <v>40.15771226233818</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>123.9342455508361</v>
+        <v>123.9342455508362</v>
       </c>
       <c r="C41" t="n">
-        <v>100.0525025541818</v>
+        <v>100.0525025541816</v>
       </c>
       <c r="D41" t="n">
-        <v>87.61916481523022</v>
+        <v>87.61916481523011</v>
       </c>
       <c r="E41" t="n">
-        <v>121.3259172346391</v>
+        <v>121.325917234639</v>
       </c>
       <c r="F41" t="n">
-        <v>153.0462548130164</v>
+        <v>153.0462548130163</v>
       </c>
       <c r="G41" t="n">
         <v>168.7158448149929</v>
       </c>
       <c r="H41" t="n">
-        <v>97.18246891135951</v>
+        <v>97.18246891135939</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>70.72678878215496</v>
+        <v>70.72678878215484</v>
       </c>
       <c r="W41" t="n">
-        <v>87.74346899876983</v>
+        <v>87.74346899876971</v>
       </c>
       <c r="X41" t="n">
-        <v>109.6297194677091</v>
+        <v>109.629719467709</v>
       </c>
       <c r="Y41" t="n">
-        <v>132.1325725914528</v>
+        <v>132.1325725914527</v>
       </c>
     </row>
     <row r="42">
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>16.55158875001453</v>
+        <v>16.55158875001442</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>38.50431246974751</v>
+        <v>38.5043124697474</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>40.15771226233826</v>
+        <v>40.15771226233815</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>168.7158448149929</v>
       </c>
       <c r="H44" t="n">
-        <v>97.18246891135951</v>
+        <v>97.18246891135824</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>169.9761015834929</v>
+        <v>59.16311304940206</v>
       </c>
       <c r="C11" t="n">
-        <v>127.0528436078634</v>
+        <v>59.16311304940206</v>
       </c>
       <c r="D11" t="n">
-        <v>84.12958563223384</v>
+        <v>59.16311304940206</v>
       </c>
       <c r="E11" t="n">
-        <v>46.32278000729938</v>
+        <v>59.16311304940206</v>
       </c>
       <c r="F11" t="n">
-        <v>46.32278000729938</v>
+        <v>59.16311304940206</v>
       </c>
       <c r="G11" t="n">
-        <v>46.32278000729938</v>
+        <v>16.23985507377273</v>
       </c>
       <c r="H11" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="I11" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="J11" t="n">
-        <v>3.399522031669858</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="K11" t="n">
-        <v>8.113754388310637</v>
+        <v>50.18283953022477</v>
       </c>
       <c r="L11" t="n">
-        <v>50.18283953022513</v>
+        <v>50.18283953022477</v>
       </c>
       <c r="M11" t="n">
-        <v>92.25192467213962</v>
+        <v>92.2519246721391</v>
       </c>
       <c r="N11" t="n">
-        <v>134.3210098140541</v>
+        <v>99.56502340804991</v>
       </c>
       <c r="O11" t="n">
-        <v>134.3210098140541</v>
+        <v>141.6341085499642</v>
       </c>
       <c r="P11" t="n">
-        <v>169.9761015834929</v>
+        <v>141.6341085499642</v>
       </c>
       <c r="Q11" t="n">
-        <v>169.9761015834929</v>
+        <v>141.6341085499642</v>
       </c>
       <c r="R11" t="n">
-        <v>169.9761015834929</v>
+        <v>169.9761015834922</v>
       </c>
       <c r="S11" t="n">
-        <v>167.1684000239491</v>
+        <v>167.1684000239485</v>
       </c>
       <c r="T11" t="n">
-        <v>169.9761015834929</v>
+        <v>169.9761015834922</v>
       </c>
       <c r="U11" t="n">
-        <v>169.9761015834929</v>
+        <v>145.0096290006608</v>
       </c>
       <c r="V11" t="n">
-        <v>169.9761015834929</v>
+        <v>102.0863710250314</v>
       </c>
       <c r="W11" t="n">
-        <v>169.9761015834929</v>
+        <v>59.16311304940206</v>
       </c>
       <c r="X11" t="n">
-        <v>169.9761015834929</v>
+        <v>59.16311304940206</v>
       </c>
       <c r="Y11" t="n">
-        <v>169.9761015834929</v>
+        <v>59.16311304940206</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="C12" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="D12" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="E12" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="F12" t="n">
-        <v>3.399522031669858</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="G12" t="n">
-        <v>45.46860717358435</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="H12" t="n">
-        <v>45.46860717358435</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="I12" t="n">
-        <v>45.46860717358435</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="J12" t="n">
-        <v>45.46860717358435</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="K12" t="n">
-        <v>45.46860717358435</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="L12" t="n">
-        <v>72.36325189116366</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="M12" t="n">
-        <v>72.36325189116366</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="N12" t="n">
-        <v>72.36325189116366</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="O12" t="n">
-        <v>72.36325189116366</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="P12" t="n">
-        <v>72.36325189116366</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="Q12" t="n">
-        <v>72.36325189116366</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="R12" t="n">
-        <v>72.36325189116366</v>
+        <v>72.36325189116373</v>
       </c>
       <c r="S12" t="n">
-        <v>72.36325189116366</v>
+        <v>72.36325189116373</v>
       </c>
       <c r="T12" t="n">
-        <v>72.36325189116366</v>
+        <v>72.36325189116373</v>
       </c>
       <c r="U12" t="n">
-        <v>60.45116905432234</v>
+        <v>60.45116905432238</v>
       </c>
       <c r="V12" t="n">
-        <v>45.08477112966749</v>
+        <v>45.0847711296675</v>
       </c>
       <c r="W12" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="X12" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.3244489756893</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="C13" t="n">
-        <v>35.3244489756893</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="D13" t="n">
-        <v>35.3244489756893</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="E13" t="n">
-        <v>35.3244489756893</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="F13" t="n">
-        <v>35.3244489756893</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="G13" t="n">
-        <v>35.3244489756893</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="H13" t="n">
-        <v>35.3244489756893</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="I13" t="n">
-        <v>77.39353411760379</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="J13" t="n">
-        <v>77.39353411760379</v>
+        <v>77.39353411760368</v>
       </c>
       <c r="K13" t="n">
-        <v>77.39353411760379</v>
+        <v>77.39353411760368</v>
       </c>
       <c r="L13" t="n">
-        <v>77.39353411760379</v>
+        <v>119.462619259518</v>
       </c>
       <c r="M13" t="n">
-        <v>119.4626192595183</v>
+        <v>119.462619259518</v>
       </c>
       <c r="N13" t="n">
-        <v>119.4626192595183</v>
+        <v>119.462619259518</v>
       </c>
       <c r="O13" t="n">
-        <v>119.4626192595183</v>
+        <v>119.462619259518</v>
       </c>
       <c r="P13" t="n">
-        <v>119.4626192595183</v>
+        <v>119.462619259518</v>
       </c>
       <c r="Q13" t="n">
-        <v>119.4626192595183</v>
+        <v>119.462619259518</v>
       </c>
       <c r="R13" t="n">
-        <v>119.4626192595183</v>
+        <v>119.462619259518</v>
       </c>
       <c r="S13" t="n">
-        <v>109.1175816338945</v>
+        <v>109.1175816338942</v>
       </c>
       <c r="T13" t="n">
-        <v>109.1175816338945</v>
+        <v>109.1175816338942</v>
       </c>
       <c r="U13" t="n">
-        <v>66.19432365826501</v>
+        <v>66.19432365826484</v>
       </c>
       <c r="V13" t="n">
-        <v>46.32278000729938</v>
+        <v>46.32278000729919</v>
       </c>
       <c r="W13" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="X13" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>132.1692959585584</v>
+        <v>84.1295856322335</v>
       </c>
       <c r="C14" t="n">
-        <v>132.1692959585584</v>
+        <v>41.20632765660415</v>
       </c>
       <c r="D14" t="n">
-        <v>132.1692959585584</v>
+        <v>41.20632765660415</v>
       </c>
       <c r="E14" t="n">
-        <v>132.1692959585584</v>
+        <v>41.20632765660415</v>
       </c>
       <c r="F14" t="n">
-        <v>89.2460379829289</v>
+        <v>41.20632765660415</v>
       </c>
       <c r="G14" t="n">
-        <v>46.32278000729938</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="H14" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="I14" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="J14" t="n">
-        <v>7.430646179145057</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="K14" t="n">
-        <v>7.430646179145057</v>
+        <v>50.18283953022495</v>
       </c>
       <c r="L14" t="n">
-        <v>49.49973132105955</v>
+        <v>92.1126443308054</v>
       </c>
       <c r="M14" t="n">
-        <v>91.56881646297404</v>
+        <v>92.1126443308054</v>
       </c>
       <c r="N14" t="n">
-        <v>133.6379016048885</v>
+        <v>127.9070164415779</v>
       </c>
       <c r="O14" t="n">
-        <v>141.6341085499649</v>
+        <v>169.9761015834922</v>
       </c>
       <c r="P14" t="n">
-        <v>141.6341085499649</v>
+        <v>169.9761015834922</v>
       </c>
       <c r="Q14" t="n">
-        <v>141.6341085499649</v>
+        <v>169.9761015834922</v>
       </c>
       <c r="R14" t="n">
-        <v>169.9761015834929</v>
+        <v>169.9761015834922</v>
       </c>
       <c r="S14" t="n">
-        <v>167.1684000239491</v>
+        <v>167.1684000239484</v>
       </c>
       <c r="T14" t="n">
-        <v>169.9761015834929</v>
+        <v>169.9761015834922</v>
       </c>
       <c r="U14" t="n">
-        <v>169.9761015834929</v>
+        <v>169.9761015834922</v>
       </c>
       <c r="V14" t="n">
-        <v>132.1692959585584</v>
+        <v>169.9761015834922</v>
       </c>
       <c r="W14" t="n">
-        <v>132.1692959585584</v>
+        <v>127.0528436078629</v>
       </c>
       <c r="X14" t="n">
-        <v>132.1692959585584</v>
+        <v>84.1295856322335</v>
       </c>
       <c r="Y14" t="n">
-        <v>132.1692959585584</v>
+        <v>84.1295856322335</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="C15" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="D15" t="n">
-        <v>3.399522031669858</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="E15" t="n">
-        <v>3.399522031669858</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="F15" t="n">
-        <v>3.399522031669858</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="G15" t="n">
-        <v>3.399522031669858</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="H15" t="n">
-        <v>3.399522031669858</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="I15" t="n">
-        <v>3.399522031669858</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="J15" t="n">
-        <v>3.399522031669858</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="K15" t="n">
-        <v>3.399522031669858</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="L15" t="n">
-        <v>3.399522031669858</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="M15" t="n">
-        <v>30.29416674924916</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="N15" t="n">
-        <v>30.29416674924916</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="O15" t="n">
-        <v>72.36325189116366</v>
+        <v>72.36325189116364</v>
       </c>
       <c r="P15" t="n">
-        <v>72.36325189116366</v>
+        <v>72.36325189116364</v>
       </c>
       <c r="Q15" t="n">
-        <v>72.36325189116366</v>
+        <v>72.36325189116364</v>
       </c>
       <c r="R15" t="n">
-        <v>72.36325189116366</v>
+        <v>72.36325189116364</v>
       </c>
       <c r="S15" t="n">
-        <v>72.36325189116366</v>
+        <v>72.36325189116364</v>
       </c>
       <c r="T15" t="n">
-        <v>72.36325189116366</v>
+        <v>72.36325189116364</v>
       </c>
       <c r="U15" t="n">
-        <v>60.45116905432234</v>
+        <v>60.45116905432232</v>
       </c>
       <c r="V15" t="n">
-        <v>45.08477112966749</v>
+        <v>45.08477112966747</v>
       </c>
       <c r="W15" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="X15" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="C16" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="D16" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="E16" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="F16" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="G16" t="n">
-        <v>45.46860717358435</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="H16" t="n">
-        <v>45.46860717358435</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="I16" t="n">
-        <v>45.46860717358435</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="J16" t="n">
-        <v>87.53769231549884</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="K16" t="n">
-        <v>87.53769231549884</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="L16" t="n">
-        <v>119.4626192595183</v>
+        <v>77.39353411760359</v>
       </c>
       <c r="M16" t="n">
-        <v>119.4626192595183</v>
+        <v>77.39353411760359</v>
       </c>
       <c r="N16" t="n">
-        <v>119.4626192595183</v>
+        <v>77.39353411760359</v>
       </c>
       <c r="O16" t="n">
-        <v>119.4626192595183</v>
+        <v>77.39353411760359</v>
       </c>
       <c r="P16" t="n">
-        <v>119.4626192595183</v>
+        <v>119.4626192595179</v>
       </c>
       <c r="Q16" t="n">
-        <v>119.4626192595183</v>
+        <v>119.4626192595179</v>
       </c>
       <c r="R16" t="n">
-        <v>119.4626192595183</v>
+        <v>119.4626192595179</v>
       </c>
       <c r="S16" t="n">
-        <v>109.1175816338945</v>
+        <v>109.1175816338942</v>
       </c>
       <c r="T16" t="n">
-        <v>109.1175816338945</v>
+        <v>109.1175816338942</v>
       </c>
       <c r="U16" t="n">
-        <v>66.19432365826501</v>
+        <v>66.19432365826481</v>
       </c>
       <c r="V16" t="n">
-        <v>46.32278000729938</v>
+        <v>46.32278000729919</v>
       </c>
       <c r="W16" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="X16" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.38917995028189</v>
+        <v>111.3124379259107</v>
       </c>
       <c r="C17" t="n">
-        <v>55.95581272259304</v>
+        <v>111.3124379259107</v>
       </c>
       <c r="D17" t="n">
-        <v>56.07887386429721</v>
+        <v>111.4354990676149</v>
       </c>
       <c r="E17" t="n">
-        <v>55.85712335334961</v>
+        <v>77.51383418289845</v>
       </c>
       <c r="F17" t="n">
-        <v>12.93386537772004</v>
+        <v>55.85712335334929</v>
       </c>
       <c r="G17" t="n">
-        <v>12.93386537772004</v>
+        <v>12.93386537772003</v>
       </c>
       <c r="H17" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="I17" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="J17" t="n">
-        <v>3.399522031669858</v>
+        <v>26.92233274330052</v>
       </c>
       <c r="K17" t="n">
-        <v>3.399522031669858</v>
+        <v>68.99141788521484</v>
       </c>
       <c r="L17" t="n">
-        <v>3.399522031669858</v>
+        <v>68.99141788521484</v>
       </c>
       <c r="M17" t="n">
-        <v>3.399522031669858</v>
+        <v>68.99141788521484</v>
       </c>
       <c r="N17" t="n">
-        <v>3.399522031669858</v>
+        <v>68.99141788521484</v>
       </c>
       <c r="O17" t="n">
-        <v>3.399522031669858</v>
+        <v>68.99141788521484</v>
       </c>
       <c r="P17" t="n">
-        <v>3.399522031669858</v>
+        <v>68.99141788521484</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.76884615774943</v>
+        <v>68.99141788521484</v>
       </c>
       <c r="R17" t="n">
-        <v>85.83793129966392</v>
+        <v>68.99141788521484</v>
       </c>
       <c r="S17" t="n">
-        <v>127.9070164415784</v>
+        <v>68.99141788521484</v>
       </c>
       <c r="T17" t="n">
-        <v>127.9070164415784</v>
+        <v>111.0605030271292</v>
       </c>
       <c r="U17" t="n">
-        <v>169.9761015834929</v>
+        <v>153.1295881690435</v>
       </c>
       <c r="V17" t="n">
-        <v>169.9761015834929</v>
+        <v>169.9761015834922</v>
       </c>
       <c r="W17" t="n">
-        <v>169.9761015834929</v>
+        <v>169.9761015834922</v>
       </c>
       <c r="X17" t="n">
-        <v>147.8687778774936</v>
+        <v>147.868777877493</v>
       </c>
       <c r="Y17" t="n">
-        <v>104.9455199018642</v>
+        <v>147.868777877493</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="C18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="D18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="E18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="F18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="G18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="H18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="I18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="K18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="L18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="M18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="N18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="O18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="P18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="R18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="S18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="T18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="U18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="V18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="W18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="X18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="C19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="D19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="E19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="F19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="G19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="H19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="I19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="J19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="K19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="L19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="M19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="N19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="O19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="P19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="R19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="S19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="T19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="U19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="V19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="W19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="X19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98.65732018727491</v>
+        <v>68.38917995028167</v>
       </c>
       <c r="C20" t="n">
-        <v>98.65732018727491</v>
+        <v>68.38917995028167</v>
       </c>
       <c r="D20" t="n">
-        <v>98.78038132897908</v>
+        <v>68.51224109198584</v>
       </c>
       <c r="E20" t="n">
-        <v>98.78038132897908</v>
+        <v>46.32278000729919</v>
       </c>
       <c r="F20" t="n">
-        <v>55.85712335334956</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="G20" t="n">
-        <v>12.93386537772004</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="H20" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="I20" t="n">
-        <v>3.399522031669858</v>
+        <v>45.46860717358417</v>
       </c>
       <c r="J20" t="n">
-        <v>26.92233274330069</v>
+        <v>85.83793129966358</v>
       </c>
       <c r="K20" t="n">
-        <v>26.92233274330069</v>
+        <v>127.9070164415779</v>
       </c>
       <c r="L20" t="n">
-        <v>68.99141788521518</v>
+        <v>127.9070164415779</v>
       </c>
       <c r="M20" t="n">
-        <v>68.99141788521518</v>
+        <v>127.9070164415779</v>
       </c>
       <c r="N20" t="n">
-        <v>68.99141788521518</v>
+        <v>127.9070164415779</v>
       </c>
       <c r="O20" t="n">
-        <v>68.99141788521518</v>
+        <v>127.9070164415779</v>
       </c>
       <c r="P20" t="n">
-        <v>68.99141788521518</v>
+        <v>127.9070164415779</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.99141788521518</v>
+        <v>127.9070164415779</v>
       </c>
       <c r="R20" t="n">
-        <v>68.99141788521518</v>
+        <v>169.9761015834922</v>
       </c>
       <c r="S20" t="n">
-        <v>111.0605030271297</v>
+        <v>169.9761015834922</v>
       </c>
       <c r="T20" t="n">
-        <v>153.1295881690442</v>
+        <v>169.9761015834922</v>
       </c>
       <c r="U20" t="n">
-        <v>153.1295881690442</v>
+        <v>169.9761015834922</v>
       </c>
       <c r="V20" t="n">
-        <v>169.9761015834929</v>
+        <v>169.9761015834922</v>
       </c>
       <c r="W20" t="n">
-        <v>169.9761015834929</v>
+        <v>169.9761015834922</v>
       </c>
       <c r="X20" t="n">
-        <v>147.8687778774935</v>
+        <v>147.8687778774933</v>
       </c>
       <c r="Y20" t="n">
-        <v>104.9455199018639</v>
+        <v>104.945519901864</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="C21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="D21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="E21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="F21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="G21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="H21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="I21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="J21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="K21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="L21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="P21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="Q21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="R21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="S21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="T21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="U21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="V21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="W21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="X21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="Y21" t="n">
-        <v>169.9761015834929</v>
+        <v>3.399522031669844</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="C22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="D22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="E22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="F22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="G22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="H22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="I22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="J22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="K22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="L22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="M22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="N22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="O22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="P22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="R22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="S22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="T22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="U22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="V22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="W22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="X22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669844</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>206.1039226723287</v>
+        <v>206.1039226723295</v>
       </c>
       <c r="C23" t="n">
-        <v>193.6705554446404</v>
+        <v>193.6705554446407</v>
       </c>
       <c r="D23" t="n">
-        <v>193.7936165863446</v>
+        <v>193.7936165863449</v>
       </c>
       <c r="E23" t="n">
-        <v>159.8719517016279</v>
+        <v>159.8719517016284</v>
       </c>
       <c r="F23" t="n">
-        <v>93.90954178824751</v>
+        <v>93.90954178824796</v>
       </c>
       <c r="G23" t="n">
-        <v>15.72644464017734</v>
+        <v>15.72644464017735</v>
       </c>
       <c r="H23" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="I23" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="J23" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="K23" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="L23" t="n">
-        <v>82.81935480895069</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="M23" t="n">
-        <v>82.81935480895069</v>
+        <v>82.81935480895086</v>
       </c>
       <c r="N23" t="n">
-        <v>159.4466083237742</v>
+        <v>139.5040442622623</v>
       </c>
       <c r="O23" t="n">
-        <v>159.4466083237742</v>
+        <v>139.5040442622623</v>
       </c>
       <c r="P23" t="n">
-        <v>232.9778111915342</v>
+        <v>139.5040442622623</v>
       </c>
       <c r="Q23" t="n">
-        <v>232.9778111915342</v>
+        <v>139.5040442622623</v>
       </c>
       <c r="R23" t="n">
-        <v>232.9778111915342</v>
+        <v>139.5040442622623</v>
       </c>
       <c r="S23" t="n">
-        <v>232.9778111915342</v>
+        <v>216.1312977770859</v>
       </c>
       <c r="T23" t="n">
-        <v>232.9778111915342</v>
+        <v>292.7585512919096</v>
       </c>
       <c r="U23" t="n">
-        <v>309.6050647063577</v>
+        <v>292.7585512919096</v>
       </c>
       <c r="V23" t="n">
-        <v>309.6050647063577</v>
+        <v>309.6050647063583</v>
       </c>
       <c r="W23" t="n">
-        <v>309.6050647063578</v>
+        <v>309.6050647063583</v>
       </c>
       <c r="X23" t="n">
-        <v>287.4977410003585</v>
+        <v>287.4977410003592</v>
       </c>
       <c r="Y23" t="n">
-        <v>242.660262623911</v>
+        <v>242.6602626239116</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="C24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="D24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="E24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="F24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="G24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="H24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="I24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="J24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="K24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="L24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="M24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="N24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="O24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="P24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="R24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="S24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="T24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="U24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="V24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="W24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="X24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="C25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="D25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="E25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="F25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="G25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="H25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="I25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="J25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="K25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="L25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="M25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="N25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="O25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="P25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="R25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="S25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="T25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="U25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="V25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="W25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="X25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>850.4896670542541</v>
+        <v>850.4896670542528</v>
       </c>
       <c r="C26" t="n">
-        <v>735.9943838050792</v>
+        <v>735.9943838050783</v>
       </c>
       <c r="D26" t="n">
-        <v>634.0580275649467</v>
+        <v>634.0580275649461</v>
       </c>
       <c r="E26" t="n">
-        <v>498.0744466587445</v>
+        <v>498.074446658744</v>
       </c>
       <c r="F26" t="n">
-        <v>330.0501207238783</v>
+        <v>330.0501207238785</v>
       </c>
       <c r="G26" t="n">
-        <v>146.197926100147</v>
+        <v>146.1979261001473</v>
       </c>
       <c r="H26" t="n">
-        <v>34.60166673261165</v>
+        <v>34.60166673261151</v>
       </c>
       <c r="I26" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="J26" t="n">
-        <v>185.1069238584291</v>
+        <v>111.9369008076483</v>
       </c>
       <c r="K26" t="n">
-        <v>185.1069238584291</v>
+        <v>335.9016884314997</v>
       </c>
       <c r="L26" t="n">
-        <v>227.0367286590094</v>
+        <v>377.83149323208</v>
       </c>
       <c r="M26" t="n">
-        <v>537.054290487476</v>
+        <v>687.8490550605468</v>
       </c>
       <c r="N26" t="n">
-        <v>791.1790873933642</v>
+        <v>992.2463505521064</v>
       </c>
       <c r="O26" t="n">
-        <v>1054.771016816674</v>
+        <v>1255.838279975416</v>
       </c>
       <c r="P26" t="n">
-        <v>1269.950771729519</v>
+        <v>1255.838279975416</v>
       </c>
       <c r="Q26" t="n">
-        <v>1412.344227552272</v>
+        <v>1398.231735798169</v>
       </c>
       <c r="R26" t="n">
-        <v>1451.991010780357</v>
+        <v>1437.878519026254</v>
       </c>
       <c r="S26" t="n">
-        <v>1460.543972676405</v>
+        <v>1446.431480922302</v>
       </c>
       <c r="T26" t="n">
-        <v>1460.543972676405</v>
+        <v>1460.543972676403</v>
       </c>
       <c r="U26" t="n">
-        <v>1447.111823320343</v>
+        <v>1447.111823320341</v>
       </c>
       <c r="V26" t="n">
-        <v>1362.238473174226</v>
+        <v>1362.238473174224</v>
       </c>
       <c r="W26" t="n">
-        <v>1260.17655715274</v>
+        <v>1260.176557152738</v>
       </c>
       <c r="X26" t="n">
-        <v>1136.007317425255</v>
+        <v>1136.007317425254</v>
       </c>
       <c r="Y26" t="n">
-        <v>989.1079230273222</v>
+        <v>989.1079230273206</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="C27" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="D27" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="E27" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="F27" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="G27" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="H27" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="I27" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="J27" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="K27" t="n">
-        <v>63.57163963271265</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="L27" t="n">
-        <v>63.57163963271265</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="M27" t="n">
-        <v>63.57163963271265</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="N27" t="n">
-        <v>63.57163963271265</v>
+        <v>29.65055161316891</v>
       </c>
       <c r="O27" t="n">
-        <v>63.57163963271265</v>
+        <v>29.65055161316891</v>
       </c>
       <c r="P27" t="n">
-        <v>63.57163963271265</v>
+        <v>29.65055161316891</v>
       </c>
       <c r="Q27" t="n">
-        <v>63.57163963271265</v>
+        <v>29.65055161316891</v>
       </c>
       <c r="R27" t="n">
-        <v>63.57163963271265</v>
+        <v>29.65055161316891</v>
       </c>
       <c r="S27" t="n">
-        <v>63.57163963271265</v>
+        <v>63.57163963271226</v>
       </c>
       <c r="T27" t="n">
-        <v>63.57163963271265</v>
+        <v>63.57163963271226</v>
       </c>
       <c r="U27" t="n">
-        <v>63.19388002264108</v>
+        <v>63.19388002264081</v>
       </c>
       <c r="V27" t="n">
-        <v>59.36180532475598</v>
+        <v>59.36180532475583</v>
       </c>
       <c r="W27" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="X27" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="C28" t="n">
-        <v>29.2108794535281</v>
+        <v>42.62820326853183</v>
       </c>
       <c r="D28" t="n">
-        <v>29.2108794535281</v>
+        <v>42.62820326853183</v>
       </c>
       <c r="E28" t="n">
-        <v>29.2108794535281</v>
+        <v>42.62820326853183</v>
       </c>
       <c r="F28" t="n">
-        <v>29.2108794535281</v>
+        <v>42.62820326853183</v>
       </c>
       <c r="G28" t="n">
-        <v>29.2108794535281</v>
+        <v>42.62820326853183</v>
       </c>
       <c r="H28" t="n">
-        <v>29.2108794535281</v>
+        <v>42.62820326853183</v>
       </c>
       <c r="I28" t="n">
-        <v>29.2108794535281</v>
+        <v>42.62820326853183</v>
       </c>
       <c r="J28" t="n">
-        <v>29.2108794535281</v>
+        <v>42.62820326853183</v>
       </c>
       <c r="K28" t="n">
-        <v>29.2108794535281</v>
+        <v>42.62820326853183</v>
       </c>
       <c r="L28" t="n">
-        <v>125.6117330683297</v>
+        <v>42.62820326853183</v>
       </c>
       <c r="M28" t="n">
-        <v>125.6117330683297</v>
+        <v>42.62820326853183</v>
       </c>
       <c r="N28" t="n">
-        <v>125.6117330683297</v>
+        <v>42.62820326853183</v>
       </c>
       <c r="O28" t="n">
-        <v>143.8689892283178</v>
+        <v>42.62820326853183</v>
       </c>
       <c r="P28" t="n">
-        <v>143.8689892283178</v>
+        <v>130.9645047495652</v>
       </c>
       <c r="Q28" t="n">
-        <v>143.8689892283178</v>
+        <v>130.9645047495652</v>
       </c>
       <c r="R28" t="n">
-        <v>143.8689892283178</v>
+        <v>130.9645047495652</v>
       </c>
       <c r="S28" t="n">
-        <v>143.8689892283178</v>
+        <v>130.9645047495652</v>
       </c>
       <c r="T28" t="n">
-        <v>143.8689892283178</v>
+        <v>143.8689892283174</v>
       </c>
       <c r="U28" t="n">
-        <v>91.54359495331924</v>
+        <v>91.54359495331899</v>
       </c>
       <c r="V28" t="n">
-        <v>83.20637452912338</v>
+        <v>83.20637452912324</v>
       </c>
       <c r="W28" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="X28" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
     </row>
     <row r="29">
@@ -6437,70 +6437,70 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>850.4896670542537</v>
+        <v>850.4896670542539</v>
       </c>
       <c r="C29" t="n">
         <v>735.9943838050792</v>
       </c>
       <c r="D29" t="n">
-        <v>634.0580275649465</v>
+        <v>634.0580275649468</v>
       </c>
       <c r="E29" t="n">
-        <v>498.0744466587444</v>
+        <v>498.0744466587448</v>
       </c>
       <c r="F29" t="n">
-        <v>330.0501207238783</v>
+        <v>330.0501207238789</v>
       </c>
       <c r="G29" t="n">
-        <v>146.1979261001476</v>
+        <v>146.1979261001478</v>
       </c>
       <c r="H29" t="n">
-        <v>34.60166673261165</v>
+        <v>34.60166673261139</v>
       </c>
       <c r="I29" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="J29" t="n">
-        <v>185.1069238584291</v>
+        <v>185.1069238584293</v>
       </c>
       <c r="K29" t="n">
-        <v>185.1069238584291</v>
+        <v>185.1069238584293</v>
       </c>
       <c r="L29" t="n">
-        <v>227.0367286590094</v>
+        <v>461.5233439538608</v>
       </c>
       <c r="M29" t="n">
-        <v>472.6693001477038</v>
+        <v>771.5409057823276</v>
       </c>
       <c r="N29" t="n">
-        <v>777.0665956392634</v>
+        <v>919.4600514620133</v>
       </c>
       <c r="O29" t="n">
-        <v>1040.658525062573</v>
+        <v>1183.051980885323</v>
       </c>
       <c r="P29" t="n">
-        <v>1255.838279975418</v>
+        <v>1398.231735798169</v>
       </c>
       <c r="Q29" t="n">
-        <v>1398.231735798171</v>
+        <v>1398.231735798169</v>
       </c>
       <c r="R29" t="n">
-        <v>1437.878519026256</v>
+        <v>1437.878519026254</v>
       </c>
       <c r="S29" t="n">
-        <v>1446.431480922304</v>
+        <v>1446.431480922302</v>
       </c>
       <c r="T29" t="n">
-        <v>1460.543972676405</v>
+        <v>1460.543972676403</v>
       </c>
       <c r="U29" t="n">
-        <v>1447.111823320343</v>
+        <v>1447.111823320342</v>
       </c>
       <c r="V29" t="n">
-        <v>1362.238473174226</v>
+        <v>1362.238473174225</v>
       </c>
       <c r="W29" t="n">
-        <v>1260.17655715274</v>
+        <v>1260.176557152739</v>
       </c>
       <c r="X29" t="n">
         <v>1136.007317425255</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="C30" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="D30" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="E30" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="F30" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="G30" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="H30" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="I30" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="J30" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="K30" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="L30" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="M30" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="N30" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="O30" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="P30" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="Q30" t="n">
-        <v>29.2108794535281</v>
+        <v>63.57163963271192</v>
       </c>
       <c r="R30" t="n">
-        <v>63.57163963271265</v>
+        <v>63.57163963271192</v>
       </c>
       <c r="S30" t="n">
-        <v>63.57163963271265</v>
+        <v>63.57163963271192</v>
       </c>
       <c r="T30" t="n">
-        <v>63.57163963271265</v>
+        <v>63.57163963271192</v>
       </c>
       <c r="U30" t="n">
-        <v>63.19388002264108</v>
+        <v>63.19388002264058</v>
       </c>
       <c r="V30" t="n">
-        <v>59.36180532475598</v>
+        <v>59.36180532475571</v>
       </c>
       <c r="W30" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="X30" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="Y30" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.99934329534548</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="C31" t="n">
-        <v>50.99934329534548</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="D31" t="n">
-        <v>50.99934329534548</v>
+        <v>50.99934329534454</v>
       </c>
       <c r="E31" t="n">
-        <v>50.99934329534548</v>
+        <v>50.99934329534454</v>
       </c>
       <c r="F31" t="n">
-        <v>50.99934329534548</v>
+        <v>50.99934329534454</v>
       </c>
       <c r="G31" t="n">
-        <v>50.99934329534548</v>
+        <v>50.99934329534454</v>
       </c>
       <c r="H31" t="n">
-        <v>50.99934329534548</v>
+        <v>50.99934329534454</v>
       </c>
       <c r="I31" t="n">
-        <v>50.99934329534548</v>
+        <v>50.99934329534454</v>
       </c>
       <c r="J31" t="n">
-        <v>50.99934329534548</v>
+        <v>50.99934329534454</v>
       </c>
       <c r="K31" t="n">
-        <v>50.99934329534548</v>
+        <v>50.99934329534454</v>
       </c>
       <c r="L31" t="n">
-        <v>50.99934329534548</v>
+        <v>50.99934329534454</v>
       </c>
       <c r="M31" t="n">
-        <v>143.8689892283178</v>
+        <v>143.8689892283171</v>
       </c>
       <c r="N31" t="n">
-        <v>143.8689892283178</v>
+        <v>143.8689892283171</v>
       </c>
       <c r="O31" t="n">
-        <v>143.8689892283178</v>
+        <v>143.8689892283171</v>
       </c>
       <c r="P31" t="n">
-        <v>143.8689892283178</v>
+        <v>143.8689892283171</v>
       </c>
       <c r="Q31" t="n">
-        <v>143.8689892283178</v>
+        <v>143.8689892283171</v>
       </c>
       <c r="R31" t="n">
-        <v>143.8689892283178</v>
+        <v>143.8689892283171</v>
       </c>
       <c r="S31" t="n">
-        <v>143.8689892283178</v>
+        <v>143.8689892283171</v>
       </c>
       <c r="T31" t="n">
-        <v>143.8689892283178</v>
+        <v>143.8689892283171</v>
       </c>
       <c r="U31" t="n">
-        <v>91.54359495331924</v>
+        <v>91.54359495331876</v>
       </c>
       <c r="V31" t="n">
-        <v>83.20637452912338</v>
+        <v>83.20637452912312</v>
       </c>
       <c r="W31" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="X31" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>850.4896670542539</v>
+        <v>850.489667054253</v>
       </c>
       <c r="C32" t="n">
-        <v>735.9943838050795</v>
+        <v>735.9943838050787</v>
       </c>
       <c r="D32" t="n">
-        <v>634.0580275649469</v>
+        <v>634.0580275649462</v>
       </c>
       <c r="E32" t="n">
-        <v>498.0744466587448</v>
+        <v>498.0744466587442</v>
       </c>
       <c r="F32" t="n">
-        <v>330.0501207238788</v>
+        <v>330.0501207238782</v>
       </c>
       <c r="G32" t="n">
-        <v>146.1979261001475</v>
+        <v>146.197926100147</v>
       </c>
       <c r="H32" t="n">
-        <v>34.60166673261157</v>
+        <v>34.60166673261145</v>
       </c>
       <c r="I32" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="J32" t="n">
-        <v>29.2108794535281</v>
+        <v>185.1069238584292</v>
       </c>
       <c r="K32" t="n">
-        <v>29.2108794535281</v>
+        <v>409.0717114822807</v>
       </c>
       <c r="L32" t="n">
-        <v>305.6272995489595</v>
+        <v>685.4881315777121</v>
       </c>
       <c r="M32" t="n">
-        <v>615.6448613774262</v>
+        <v>761.0190781113278</v>
       </c>
       <c r="N32" t="n">
-        <v>920.0421568689858</v>
+        <v>992.2463505521056</v>
       </c>
       <c r="O32" t="n">
-        <v>1040.658525062573</v>
+        <v>1255.838279975416</v>
       </c>
       <c r="P32" t="n">
-        <v>1255.838279975418</v>
+        <v>1255.838279975416</v>
       </c>
       <c r="Q32" t="n">
-        <v>1398.231735798171</v>
+        <v>1398.231735798169</v>
       </c>
       <c r="R32" t="n">
-        <v>1437.878519026256</v>
+        <v>1437.878519026254</v>
       </c>
       <c r="S32" t="n">
-        <v>1446.431480922304</v>
+        <v>1446.431480922302</v>
       </c>
       <c r="T32" t="n">
-        <v>1460.543972676405</v>
+        <v>1460.543972676403</v>
       </c>
       <c r="U32" t="n">
-        <v>1447.111823320343</v>
+        <v>1447.111823320342</v>
       </c>
       <c r="V32" t="n">
-        <v>1362.238473174225</v>
+        <v>1362.238473174224</v>
       </c>
       <c r="W32" t="n">
-        <v>1260.17655715274</v>
+        <v>1260.176557152739</v>
       </c>
       <c r="X32" t="n">
-        <v>1136.007317425255</v>
+        <v>1136.007317425254</v>
       </c>
       <c r="Y32" t="n">
-        <v>989.1079230273218</v>
+        <v>989.1079230273209</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="C33" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="D33" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="E33" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="F33" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="G33" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="H33" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="I33" t="n">
-        <v>29.2108794535281</v>
+        <v>63.57163963271209</v>
       </c>
       <c r="J33" t="n">
-        <v>29.2108794535281</v>
+        <v>63.57163963271209</v>
       </c>
       <c r="K33" t="n">
-        <v>29.2108794535281</v>
+        <v>63.57163963271209</v>
       </c>
       <c r="L33" t="n">
-        <v>29.2108794535281</v>
+        <v>63.57163963271209</v>
       </c>
       <c r="M33" t="n">
-        <v>29.2108794535281</v>
+        <v>63.57163963271209</v>
       </c>
       <c r="N33" t="n">
-        <v>29.2108794535281</v>
+        <v>63.57163963271209</v>
       </c>
       <c r="O33" t="n">
-        <v>29.2108794535281</v>
+        <v>63.57163963271209</v>
       </c>
       <c r="P33" t="n">
-        <v>29.2108794535281</v>
+        <v>63.57163963271209</v>
       </c>
       <c r="Q33" t="n">
-        <v>29.2108794535281</v>
+        <v>63.57163963271209</v>
       </c>
       <c r="R33" t="n">
-        <v>63.57163963271238</v>
+        <v>63.57163963271209</v>
       </c>
       <c r="S33" t="n">
-        <v>63.57163963271238</v>
+        <v>63.57163963271209</v>
       </c>
       <c r="T33" t="n">
-        <v>63.57163963271238</v>
+        <v>63.57163963271209</v>
       </c>
       <c r="U33" t="n">
-        <v>63.1938800226409</v>
+        <v>63.1938800226407</v>
       </c>
       <c r="V33" t="n">
-        <v>59.36180532475589</v>
+        <v>59.36180532475577</v>
       </c>
       <c r="W33" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="X33" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="Y33" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="C34" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="D34" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="E34" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="F34" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="G34" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="H34" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="I34" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="J34" t="n">
-        <v>122.1191368370507</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="K34" t="n">
-        <v>122.1191368370507</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="L34" t="n">
-        <v>122.1191368370507</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="M34" t="n">
-        <v>122.1191368370507</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="N34" t="n">
-        <v>122.1191368370507</v>
+        <v>135.0340419936923</v>
       </c>
       <c r="O34" t="n">
-        <v>122.1191368370507</v>
+        <v>135.0340419936923</v>
       </c>
       <c r="P34" t="n">
-        <v>122.1191368370507</v>
+        <v>135.0340419936923</v>
       </c>
       <c r="Q34" t="n">
-        <v>143.8689892283176</v>
+        <v>135.0340419936923</v>
       </c>
       <c r="R34" t="n">
-        <v>143.8689892283176</v>
+        <v>135.0340419936923</v>
       </c>
       <c r="S34" t="n">
-        <v>143.8689892283176</v>
+        <v>135.0340419936923</v>
       </c>
       <c r="T34" t="n">
-        <v>143.8689892283176</v>
+        <v>143.8689892283173</v>
       </c>
       <c r="U34" t="n">
-        <v>91.54359495331907</v>
+        <v>91.54359495331887</v>
       </c>
       <c r="V34" t="n">
-        <v>83.20637452912329</v>
+        <v>83.20637452912318</v>
       </c>
       <c r="W34" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="X34" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.2108794535281</v>
+        <v>29.21087945352807</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>761.1064616071312</v>
+        <v>761.1064616071305</v>
       </c>
       <c r="C35" t="n">
-        <v>660.0433277140183</v>
+        <v>660.0433277140178</v>
       </c>
       <c r="D35" t="n">
-        <v>571.5391208299475</v>
+        <v>571.5391208299468</v>
       </c>
       <c r="E35" t="n">
-        <v>448.987689279807</v>
+        <v>448.9876892798064</v>
       </c>
       <c r="F35" t="n">
-        <v>294.3955127010022</v>
+        <v>294.395512701002</v>
       </c>
       <c r="G35" t="n">
-        <v>123.9754674333325</v>
+        <v>123.9754674333324</v>
       </c>
       <c r="H35" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="I35" t="n">
-        <v>33.6926963935045</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="J35" t="n">
-        <v>94.27472981709279</v>
+        <v>194.8722514106354</v>
       </c>
       <c r="K35" t="n">
-        <v>331.4043670248201</v>
+        <v>432.0018886183628</v>
       </c>
       <c r="L35" t="n">
-        <v>618.3666137252999</v>
+        <v>623.9557860056652</v>
       </c>
       <c r="M35" t="n">
-        <v>937.7821618207956</v>
+        <v>943.3713341011608</v>
       </c>
       <c r="N35" t="n">
-        <v>1198.453636416456</v>
+        <v>980.3666802278203</v>
       </c>
       <c r="O35" t="n">
-        <v>1230.919483139965</v>
+        <v>1241.57271827501</v>
       </c>
       <c r="P35" t="n">
-        <v>1230.919483139965</v>
+        <v>1241.57271827501</v>
       </c>
       <c r="Q35" t="n">
-        <v>1230.919483139965</v>
+        <v>1241.57271827501</v>
       </c>
       <c r="R35" t="n">
-        <v>1241.572718275011</v>
+        <v>1241.57271827501</v>
       </c>
       <c r="S35" t="n">
-        <v>1263.290529754935</v>
+        <v>1263.290529754934</v>
       </c>
       <c r="T35" t="n">
-        <v>1290.567871092912</v>
+        <v>1290.567871092911</v>
       </c>
       <c r="U35" t="n">
-        <v>1290.567871092912</v>
+        <v>1290.567871092911</v>
       </c>
       <c r="V35" t="n">
-        <v>1219.126670302857</v>
+        <v>1219.126670302855</v>
       </c>
       <c r="W35" t="n">
-        <v>1130.496903637433</v>
+        <v>1130.496903637431</v>
       </c>
       <c r="X35" t="n">
-        <v>1019.759813266009</v>
+        <v>1019.759813266008</v>
       </c>
       <c r="Y35" t="n">
-        <v>886.2925682241375</v>
+        <v>886.2925682241367</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="C36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="D36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="E36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="F36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="G36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="H36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="I36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="J36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="K36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="L36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="M36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="N36" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="O36" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="P36" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="Q36" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="R36" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="S36" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="T36" t="n">
-        <v>42.53013393702443</v>
+        <v>29.73552654697934</v>
       </c>
       <c r="U36" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702433</v>
       </c>
       <c r="V36" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702433</v>
       </c>
       <c r="W36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="X36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="Y36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="C37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="D37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="E37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="F37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="G37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="H37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="I37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="J37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="K37" t="n">
-        <v>105.2679480603287</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="L37" t="n">
-        <v>105.2679480603287</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="M37" t="n">
-        <v>105.2679480603287</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="N37" t="n">
-        <v>105.2679480603287</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="O37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="P37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="Q37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="R37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="S37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="T37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="U37" t="n">
-        <v>66.37470314139185</v>
+        <v>66.37470314139173</v>
       </c>
       <c r="V37" t="n">
-        <v>66.37470314139185</v>
+        <v>66.37470314139173</v>
       </c>
       <c r="W37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="X37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="Y37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>761.1064616071309</v>
+        <v>761.1064616071305</v>
       </c>
       <c r="C38" t="n">
-        <v>660.043327714018</v>
+        <v>660.0433277140178</v>
       </c>
       <c r="D38" t="n">
-        <v>571.5391208299473</v>
+        <v>571.5391208299468</v>
       </c>
       <c r="E38" t="n">
-        <v>448.9876892798068</v>
+        <v>448.9876892798064</v>
       </c>
       <c r="F38" t="n">
-        <v>294.3955127010022</v>
+        <v>294.395512701002</v>
       </c>
       <c r="G38" t="n">
-        <v>123.9754674333325</v>
+        <v>123.9754674333324</v>
       </c>
       <c r="H38" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="I38" t="n">
-        <v>33.69269639350449</v>
+        <v>33.69269639350456</v>
       </c>
       <c r="J38" t="n">
-        <v>59.36541712232089</v>
+        <v>202.7535903822817</v>
       </c>
       <c r="K38" t="n">
-        <v>296.4950543300482</v>
+        <v>202.7535903822817</v>
       </c>
       <c r="L38" t="n">
-        <v>318.1383016509506</v>
+        <v>224.3968377031842</v>
       </c>
       <c r="M38" t="n">
-        <v>637.5538497464462</v>
+        <v>543.8123857986797</v>
       </c>
       <c r="N38" t="n">
-        <v>707.4645299431547</v>
+        <v>861.3745308741154</v>
       </c>
       <c r="O38" t="n">
-        <v>984.2213089503406</v>
+        <v>982.1342924462522</v>
       </c>
       <c r="P38" t="n">
-        <v>1212.565913447061</v>
+        <v>1210.478896942973</v>
       </c>
       <c r="Q38" t="n">
-        <v>1241.57271827501</v>
+        <v>1210.478896942973</v>
       </c>
       <c r="R38" t="n">
-        <v>1241.57271827501</v>
+        <v>1263.290529754934</v>
       </c>
       <c r="S38" t="n">
-        <v>1263.290529754935</v>
+        <v>1263.290529754934</v>
       </c>
       <c r="T38" t="n">
         <v>1290.567871092911</v>
@@ -7208,16 +7208,16 @@
         <v>1290.567871092911</v>
       </c>
       <c r="V38" t="n">
-        <v>1219.126670302856</v>
+        <v>1219.126670302855</v>
       </c>
       <c r="W38" t="n">
         <v>1130.496903637432</v>
       </c>
       <c r="X38" t="n">
-        <v>1019.759813266009</v>
+        <v>1019.759813266008</v>
       </c>
       <c r="Y38" t="n">
-        <v>886.2925682241371</v>
+        <v>886.2925682241369</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="C39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="D39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="E39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="F39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="G39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="H39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="I39" t="n">
-        <v>42.53013393702442</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="J39" t="n">
-        <v>42.53013393702442</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="K39" t="n">
-        <v>42.53013393702442</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="L39" t="n">
-        <v>42.53013393702442</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="M39" t="n">
-        <v>42.53013393702442</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="N39" t="n">
-        <v>42.53013393702442</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="O39" t="n">
-        <v>42.53013393702442</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="P39" t="n">
-        <v>42.53013393702442</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="Q39" t="n">
-        <v>42.53013393702442</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="R39" t="n">
-        <v>42.53013393702442</v>
+        <v>33.12110076454538</v>
       </c>
       <c r="S39" t="n">
-        <v>42.53013393702442</v>
+        <v>33.12110076454538</v>
       </c>
       <c r="T39" t="n">
-        <v>42.53013393702442</v>
+        <v>33.12110076454538</v>
       </c>
       <c r="U39" t="n">
-        <v>42.53013393702442</v>
+        <v>33.12110076454538</v>
       </c>
       <c r="V39" t="n">
-        <v>42.53013393702442</v>
+        <v>42.53013393702433</v>
       </c>
       <c r="W39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="X39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="Y39" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="C40" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="D40" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="E40" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="F40" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="G40" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="H40" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="I40" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="J40" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="K40" t="n">
-        <v>59.62448004925501</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="L40" t="n">
-        <v>59.62448004925501</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="M40" t="n">
-        <v>59.62448004925501</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="N40" t="n">
-        <v>59.62448004925501</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="O40" t="n">
-        <v>59.62448004925501</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="P40" t="n">
-        <v>59.62448004925501</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="Q40" t="n">
-        <v>59.62448004925501</v>
+        <v>104.4588315167167</v>
       </c>
       <c r="R40" t="n">
-        <v>105.2679480603287</v>
+        <v>104.4588315167167</v>
       </c>
       <c r="S40" t="n">
-        <v>105.2679480603287</v>
+        <v>104.4588315167167</v>
       </c>
       <c r="T40" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="U40" t="n">
-        <v>66.37470314139183</v>
+        <v>66.37470314139173</v>
       </c>
       <c r="V40" t="n">
-        <v>66.37470314139183</v>
+        <v>66.37470314139173</v>
       </c>
       <c r="W40" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="X40" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="Y40" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>761.106461607131</v>
+        <v>761.1064616071303</v>
       </c>
       <c r="C41" t="n">
-        <v>660.0433277140181</v>
+        <v>660.0433277140174</v>
       </c>
       <c r="D41" t="n">
-        <v>571.5391208299471</v>
+        <v>571.5391208299468</v>
       </c>
       <c r="E41" t="n">
-        <v>448.9876892798067</v>
+        <v>448.9876892798063</v>
       </c>
       <c r="F41" t="n">
-        <v>294.3955127010021</v>
+        <v>294.3955127010022</v>
       </c>
       <c r="G41" t="n">
-        <v>123.9754674333325</v>
+        <v>123.9754674333324</v>
       </c>
       <c r="H41" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="I41" t="n">
-        <v>33.69269639350449</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="J41" t="n">
-        <v>202.7535903822815</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="K41" t="n">
-        <v>439.8832275900088</v>
+        <v>45.98804898050399</v>
       </c>
       <c r="L41" t="n">
-        <v>729.4644972693161</v>
+        <v>335.5693186598115</v>
       </c>
       <c r="M41" t="n">
-        <v>814.7029898032847</v>
+        <v>335.5693186598115</v>
       </c>
       <c r="N41" t="n">
-        <v>851.6983359299443</v>
+        <v>570.2597942294285</v>
       </c>
       <c r="O41" t="n">
-        <v>880.803650058403</v>
+        <v>847.0165732366145</v>
       </c>
       <c r="P41" t="n">
-        <v>1109.148254555124</v>
+        <v>1075.361177733335</v>
       </c>
       <c r="Q41" t="n">
-        <v>1252.637294619889</v>
+        <v>1230.919483139964</v>
       </c>
       <c r="R41" t="n">
-        <v>1263.290529754935</v>
+        <v>1241.57271827501</v>
       </c>
       <c r="S41" t="n">
-        <v>1263.290529754935</v>
+        <v>1263.290529754934</v>
       </c>
       <c r="T41" t="n">
-        <v>1290.567871092912</v>
+        <v>1290.567871092911</v>
       </c>
       <c r="U41" t="n">
-        <v>1290.567871092912</v>
+        <v>1290.567871092911</v>
       </c>
       <c r="V41" t="n">
-        <v>1219.126670302856</v>
+        <v>1219.126670302855</v>
       </c>
       <c r="W41" t="n">
-        <v>1130.496903637432</v>
+        <v>1130.496903637431</v>
       </c>
       <c r="X41" t="n">
-        <v>1019.759813266009</v>
+        <v>1019.759813266008</v>
       </c>
       <c r="Y41" t="n">
-        <v>886.2925682241372</v>
+        <v>886.2925682241365</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="C42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="D42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="E42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="F42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="G42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="H42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="I42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="J42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="K42" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="L42" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="M42" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="N42" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="O42" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="P42" t="n">
-        <v>42.53013393702443</v>
+        <v>42.5301339370243</v>
       </c>
       <c r="Q42" t="n">
-        <v>42.53013393702443</v>
+        <v>42.5301339370243</v>
       </c>
       <c r="R42" t="n">
-        <v>42.53013393702443</v>
+        <v>42.5301339370243</v>
       </c>
       <c r="S42" t="n">
-        <v>42.53013393702443</v>
+        <v>42.5301339370243</v>
       </c>
       <c r="T42" t="n">
-        <v>42.53013393702443</v>
+        <v>42.5301339370243</v>
       </c>
       <c r="U42" t="n">
-        <v>42.53013393702443</v>
+        <v>42.5301339370243</v>
       </c>
       <c r="V42" t="n">
-        <v>42.53013393702443</v>
+        <v>42.5301339370243</v>
       </c>
       <c r="W42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="X42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="Y42" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="C43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="D43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="E43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="F43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="G43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="H43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="I43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="J43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="K43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="L43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="M43" t="n">
-        <v>105.2679480603287</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="N43" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="O43" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="P43" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="Q43" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="R43" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="S43" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="T43" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="U43" t="n">
-        <v>66.37470314139183</v>
+        <v>66.37470314139171</v>
       </c>
       <c r="V43" t="n">
-        <v>66.37470314139183</v>
+        <v>66.37470314139171</v>
       </c>
       <c r="W43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="X43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="Y43" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>761.106461607131</v>
+        <v>761.1064616071299</v>
       </c>
       <c r="C44" t="n">
-        <v>660.043327714018</v>
+        <v>660.0433277140169</v>
       </c>
       <c r="D44" t="n">
-        <v>571.539120829947</v>
+        <v>571.5391208299459</v>
       </c>
       <c r="E44" t="n">
-        <v>448.9876892798061</v>
+        <v>448.9876892798054</v>
       </c>
       <c r="F44" t="n">
-        <v>294.3955127010016</v>
+        <v>294.3955127010013</v>
       </c>
       <c r="G44" t="n">
-        <v>123.9754674333325</v>
+        <v>123.9754674333312</v>
       </c>
       <c r="H44" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="I44" t="n">
-        <v>25.81135742185823</v>
+        <v>33.69269639350448</v>
       </c>
       <c r="J44" t="n">
-        <v>194.8722514106353</v>
+        <v>33.69269639350448</v>
       </c>
       <c r="K44" t="n">
-        <v>224.056123545709</v>
+        <v>270.8223336012318</v>
       </c>
       <c r="L44" t="n">
-        <v>513.6373932250164</v>
+        <v>560.4036032805391</v>
       </c>
       <c r="M44" t="n">
-        <v>785.2360871243625</v>
+        <v>580.4612128893663</v>
       </c>
       <c r="N44" t="n">
-        <v>1102.798232199798</v>
+        <v>898.0233579648019</v>
       </c>
       <c r="O44" t="n">
-        <v>1131.903546328257</v>
+        <v>1174.780136971988</v>
       </c>
       <c r="P44" t="n">
-        <v>1238.842831879455</v>
+        <v>1196.684434202539</v>
       </c>
       <c r="Q44" t="n">
-        <v>1258.196824477942</v>
+        <v>1216.038426801026</v>
       </c>
       <c r="R44" t="n">
         <v>1268.850059612987</v>
       </c>
       <c r="S44" t="n">
-        <v>1290.567871092912</v>
+        <v>1290.567871092911</v>
       </c>
       <c r="T44" t="n">
-        <v>1290.567871092912</v>
+        <v>1290.567871092911</v>
       </c>
       <c r="U44" t="n">
-        <v>1290.567871092912</v>
+        <v>1290.567871092911</v>
       </c>
       <c r="V44" t="n">
-        <v>1219.126670302856</v>
+        <v>1219.126670302855</v>
       </c>
       <c r="W44" t="n">
-        <v>1130.496903637432</v>
+        <v>1130.496903637431</v>
       </c>
       <c r="X44" t="n">
-        <v>1019.759813266009</v>
+        <v>1019.759813266008</v>
       </c>
       <c r="Y44" t="n">
-        <v>886.2925682241373</v>
+        <v>886.2925682241362</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="C45" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="D45" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="E45" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="F45" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="G45" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="H45" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="I45" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="J45" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="K45" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="L45" t="n">
-        <v>25.81135742185823</v>
+        <v>42.53013393702442</v>
       </c>
       <c r="M45" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702442</v>
       </c>
       <c r="N45" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702442</v>
       </c>
       <c r="O45" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702442</v>
       </c>
       <c r="P45" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702442</v>
       </c>
       <c r="Q45" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702442</v>
       </c>
       <c r="R45" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702442</v>
       </c>
       <c r="S45" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702442</v>
       </c>
       <c r="T45" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702442</v>
       </c>
       <c r="U45" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702442</v>
       </c>
       <c r="V45" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702442</v>
       </c>
       <c r="W45" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="X45" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="Y45" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
     </row>
     <row r="46">
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="C46" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="D46" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="E46" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="F46" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="G46" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="H46" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="I46" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="J46" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="K46" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="L46" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="M46" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="N46" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="O46" t="n">
         <v>105.2679480603287</v>
@@ -7837,19 +7837,19 @@
         <v>105.2679480603287</v>
       </c>
       <c r="U46" t="n">
-        <v>66.37470314139183</v>
+        <v>66.37470314139182</v>
       </c>
       <c r="V46" t="n">
-        <v>66.37470314139183</v>
+        <v>66.37470314139182</v>
       </c>
       <c r="W46" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="X46" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="Y46" t="n">
-        <v>25.81135742185823</v>
+        <v>25.81135742185822</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>109.5746066315038</v>
+        <v>6.016860097736512</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>45.34896727216664</v>
+        <v>228.2911288462876</v>
       </c>
       <c r="M11" t="n">
-        <v>32.04872274174402</v>
+        <v>257.484909711738</v>
       </c>
       <c r="N11" t="n">
-        <v>255.2779837312948</v>
+        <v>220.1709267555337</v>
       </c>
       <c r="O11" t="n">
-        <v>217.3592102577954</v>
+        <v>34.41704868367469</v>
       </c>
       <c r="P11" t="n">
-        <v>173.9595394518417</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q11" t="n">
-        <v>137.5801139476182</v>
+        <v>5.167320383784265</v>
       </c>
       <c r="R11" t="n">
-        <v>13.9559642862501</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8860,13 +8860,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.34223702878295</v>
+        <v>24.08818589785586</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>6.016860097736384</v>
       </c>
       <c r="K14" t="n">
-        <v>210.0462273461148</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>45.34896727216683</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M14" t="n">
-        <v>257.4849097117382</v>
+        <v>214.9908843158647</v>
       </c>
       <c r="N14" t="n">
-        <v>68.52578183893766</v>
+        <v>23.50370279045035</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>34.41704868367446</v>
       </c>
       <c r="P14" t="n">
         <v>208.5255628951208</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.167320383784237</v>
+        <v>70.39427359321058</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>125.3490926623392</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>125.0272939704078</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9082,28 +9082,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>105.6509998050918</v>
       </c>
       <c r="P16" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>109.5746066315038</v>
+        <v>35.66549243879588</v>
       </c>
       <c r="K26" t="n">
         <v>210.0462273461148</v>
@@ -9951,31 +9951,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L27" t="n">
-        <v>53.61438429440269</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>122.422560448506</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>108.3507267604753</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>69.16996059133484</v>
@@ -10045,10 +10045,10 @@
         <v>111.3378805152112</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P28" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>42.34223702878295</v>
@@ -10118,10 +10118,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M29" t="n">
-        <v>226.2494259258078</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N29" t="n">
-        <v>283.4008070189657</v>
+        <v>125.3420698352545</v>
       </c>
       <c r="O29" t="n">
         <v>246.758517458259</v>
@@ -10188,31 +10188,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L30" t="n">
-        <v>125.3490926623394</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>122.422560448506</v>
       </c>
       <c r="N30" t="n">
-        <v>74.4731072706814</v>
+        <v>102.3320548813384</v>
       </c>
       <c r="O30" t="n">
-        <v>126.09543989585</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>69.16996059133484</v>
@@ -10282,13 +10282,13 @@
         <v>111.3378805152112</v>
       </c>
       <c r="O31" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>87.48425302749862</v>
       </c>
       <c r="Q31" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N32" t="n">
-        <v>283.4008070189657</v>
+        <v>209.4916928262568</v>
       </c>
       <c r="O32" t="n">
         <v>246.758517458259</v>
@@ -10425,22 +10425,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>95.79552874201696</v>
       </c>
       <c r="M33" t="n">
         <v>122.422560448506</v>
       </c>
       <c r="N33" t="n">
-        <v>107.9066134679088</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>126.09543989585</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10513,16 +10513,16 @@
         <v>105.2836065989273</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N34" t="n">
-        <v>80.70115141800861</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P34" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10583,22 +10583,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
         <v>210.0462273461148</v>
       </c>
       <c r="L35" t="n">
-        <v>267.9989892723004</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M35" t="n">
-        <v>287.4798572620959</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N35" t="n">
-        <v>283.4008070189657</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>231.0506983067475</v>
       </c>
       <c r="P35" t="n">
         <v>208.5255628951208</v>
@@ -10607,7 +10607,7 @@
         <v>137.5801139476182</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10680,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>125.0272939704079</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10744,13 +10744,13 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N37" t="n">
         <v>111.3378805152112</v>
@@ -10759,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>291.2847697033555</v>
+        <v>287.4798572620955</v>
       </c>
       <c r="N38" t="n">
         <v>283.4008070189657</v>
@@ -10841,7 +10841,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.750315383295323</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -10902,13 +10902,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>122.422560448506</v>
+        <v>80.45255078878657</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10987,16 +10987,16 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P40" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11060,16 +11060,16 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>210.0462273461148</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>270.6444670286918</v>
       </c>
       <c r="M41" t="n">
-        <v>291.2847697033555</v>
+        <v>214.9908843158649</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>199.6920499423812</v>
       </c>
       <c r="O41" t="n">
         <v>246.758517458259</v>
@@ -11078,7 +11078,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q41" t="n">
-        <v>125.3889368346251</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11145,13 +11145,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>122.422560448506</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>126.09543989585</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11218,7 +11218,7 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K43" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>105.6509998050918</v>
@@ -11297,13 +11297,13 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
         <v>270.6444670286918</v>
       </c>
       <c r="M44" t="n">
-        <v>239.1800045387124</v>
+        <v>235.251096041953</v>
       </c>
       <c r="N44" t="n">
         <v>283.4008070189657</v>
@@ -11312,13 +11312,13 @@
         <v>246.758517458259</v>
       </c>
       <c r="P44" t="n">
-        <v>208.5255628951208</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>34.6818486725308</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L45" t="n">
-        <v>125.3490926623394</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>126.09543989585</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11452,25 +11452,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q46" t="n">
         <v>42.34223702878295</v>
@@ -23258,25 +23258,25 @@
         <v>148.6510534078394</v>
       </c>
       <c r="C11" t="n">
-        <v>82.27528501531165</v>
+        <v>124.7693104111849</v>
       </c>
       <c r="D11" t="n">
-        <v>69.84194727636012</v>
+        <v>112.3359726722334</v>
       </c>
       <c r="E11" t="n">
-        <v>108.6139875229571</v>
+        <v>146.0427250916422</v>
       </c>
       <c r="F11" t="n">
-        <v>177.7630626700195</v>
+        <v>177.7630626700196</v>
       </c>
       <c r="G11" t="n">
-        <v>193.4326526719961</v>
+        <v>150.9386272761231</v>
       </c>
       <c r="H11" t="n">
-        <v>79.4052513724894</v>
+        <v>109.1873470566808</v>
       </c>
       <c r="I11" t="n">
-        <v>16.75585940079472</v>
+        <v>16.7558594007948</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>24.71680785700313</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>95.44359663915807</v>
+        <v>52.94957124328505</v>
       </c>
       <c r="W11" t="n">
-        <v>112.4602768557729</v>
+        <v>69.96625145989992</v>
       </c>
       <c r="X11" t="n">
         <v>134.3465273247122</v>
       </c>
       <c r="Y11" t="n">
-        <v>156.8493804484559</v>
+        <v>156.849380448456</v>
       </c>
     </row>
     <row r="12">
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>20.72709493087741</v>
+        <v>20.72709493087761</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>22.38049472346816</v>
+        <v>22.38049472346836</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>148.6510534078394</v>
       </c>
       <c r="C14" t="n">
-        <v>124.7693104111849</v>
+        <v>82.27528501531182</v>
       </c>
       <c r="D14" t="n">
         <v>112.3359726722333</v>
@@ -23504,16 +23504,16 @@
         <v>146.0427250916422</v>
       </c>
       <c r="F14" t="n">
-        <v>135.2690372741463</v>
+        <v>177.7630626700195</v>
       </c>
       <c r="G14" t="n">
-        <v>150.9386272761229</v>
+        <v>156.0039151033111</v>
       </c>
       <c r="H14" t="n">
-        <v>79.40525137248942</v>
+        <v>121.8992767683626</v>
       </c>
       <c r="I14" t="n">
-        <v>16.75585940079478</v>
+        <v>16.75585940079473</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>24.71680785700313</v>
+        <v>24.71680785700312</v>
       </c>
       <c r="V14" t="n">
-        <v>58.01485907047297</v>
+        <v>95.44359663915807</v>
       </c>
       <c r="W14" t="n">
-        <v>112.4602768557729</v>
+        <v>69.96625145989989</v>
       </c>
       <c r="X14" t="n">
-        <v>134.3465273247122</v>
+        <v>91.85250192883913</v>
       </c>
       <c r="Y14" t="n">
         <v>156.8493804484559</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>20.72709493087741</v>
+        <v>20.72709493087758</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>22.38049472346816</v>
+        <v>22.38049472346833</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,19 +23732,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>12.30903355541193</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>33.36291523003113</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>22.80876041837337</v>
+        <v>43.86264209299268</v>
       </c>
       <c r="G17" t="n">
-        <v>80.97237581622312</v>
+        <v>38.47835042035007</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.895078196809777</v>
+        <v>44.389103592683</v>
       </c>
     </row>
     <row r="18">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.96545883462329</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>12.30903355541193</v>
@@ -23975,16 +23975,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>33.58244823586926</v>
+        <v>11.61488176202947</v>
       </c>
       <c r="F20" t="n">
-        <v>22.80876041837337</v>
+        <v>22.80876041837354</v>
       </c>
       <c r="G20" t="n">
-        <v>38.4783504203499</v>
+        <v>80.97237581622312</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>9.438999912589679</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.895078196809777</v>
+        <v>1.895078196809948</v>
       </c>
     </row>
     <row r="21">
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.571109639633676</v>
+        <v>3.571109639633505</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>4.121147867408581e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.264766069652978e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>649235.6157336158</v>
+        <v>649235.6157336159</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>649235.6157336158</v>
+        <v>649235.6157336157</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>676304.5514565514</v>
+        <v>676304.5514565513</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>787999.0285743964</v>
+        <v>787999.028574396</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>787999.0285743964</v>
+        <v>787999.0285743959</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>787999.0285743962</v>
+        <v>787999.0285743959</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>764514.642107054</v>
+        <v>764514.6421070539</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>764514.6421070539</v>
+        <v>764514.6421070538</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>764514.6421070539</v>
+        <v>764514.6421070537</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>859883.6952970484</v>
+        <v>859883.6952970485</v>
       </c>
       <c r="C2" t="n">
-        <v>859883.6952970483</v>
+        <v>859883.695297048</v>
       </c>
       <c r="D2" t="n">
-        <v>859883.6952970482</v>
+        <v>859883.6952970481</v>
       </c>
       <c r="E2" t="n">
-        <v>751919.7405575576</v>
+        <v>751919.7405575574</v>
       </c>
       <c r="F2" t="n">
         <v>751919.7405575574</v>
       </c>
       <c r="G2" t="n">
-        <v>850834.7582840479</v>
+        <v>850834.7582840482</v>
       </c>
       <c r="H2" t="n">
         <v>850834.7582840479</v>
@@ -26335,25 +26335,25 @@
         <v>861348.4313179404</v>
       </c>
       <c r="J2" t="n">
-        <v>861625.5851370716</v>
+        <v>861625.5851370714</v>
       </c>
       <c r="K2" t="n">
-        <v>861625.5851370716</v>
+        <v>861625.585137073</v>
       </c>
       <c r="L2" t="n">
-        <v>861625.5851370718</v>
+        <v>861625.5851370719</v>
       </c>
       <c r="M2" t="n">
-        <v>861625.585137072</v>
+        <v>861625.5851370724</v>
       </c>
       <c r="N2" t="n">
+        <v>861625.5851370726</v>
+      </c>
+      <c r="O2" t="n">
+        <v>861625.5851370726</v>
+      </c>
+      <c r="P2" t="n">
         <v>861625.5851370721</v>
-      </c>
-      <c r="O2" t="n">
-        <v>861625.5851370724</v>
-      </c>
-      <c r="P2" t="n">
-        <v>861625.5851370718</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>268189.4957533077</v>
+        <v>268189.4957533074</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9282.568375648834</v>
+        <v>9282.568375648922</v>
       </c>
       <c r="J3" t="n">
-        <v>174799.9769962072</v>
+        <v>174799.9769962071</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>89968.22148461842</v>
+        <v>89968.22148461831</v>
       </c>
       <c r="M3" t="n">
         <v>10638.26229000078</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>99515.91208697844</v>
+        <v>99515.91208697853</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>503377.7457368798</v>
       </c>
       <c r="E4" t="n">
+        <v>412276.999431043</v>
+      </c>
+      <c r="F4" t="n">
         <v>412276.9994310429</v>
-      </c>
-      <c r="F4" t="n">
-        <v>412276.999431043</v>
       </c>
       <c r="G4" t="n">
         <v>465631.4922360424</v>
@@ -26436,16 +26436,16 @@
         <v>465631.4922360424</v>
       </c>
       <c r="I4" t="n">
-        <v>471927.6879885276</v>
+        <v>471927.6879885277</v>
       </c>
       <c r="J4" t="n">
-        <v>482258.3294266119</v>
+        <v>482258.3294266118</v>
       </c>
       <c r="K4" t="n">
         <v>482258.3294266118</v>
       </c>
       <c r="L4" t="n">
-        <v>482258.329426612</v>
+        <v>482258.3294266118</v>
       </c>
       <c r="M4" t="n">
         <v>480027.6217719744</v>
@@ -26457,7 +26457,7 @@
         <v>480027.6217719744</v>
       </c>
       <c r="P4" t="n">
-        <v>480027.6217719743</v>
+        <v>480027.6217719744</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>23575.06998390377</v>
+        <v>23575.06998390375</v>
       </c>
       <c r="F5" t="n">
-        <v>23575.06998390377</v>
+        <v>23575.06998390376</v>
       </c>
       <c r="G5" t="n">
         <v>33029.49299889174</v>
@@ -26488,19 +26488,19 @@
         <v>33029.49299889174</v>
       </c>
       <c r="I5" t="n">
-        <v>35151.85323835929</v>
+        <v>35151.8532383593</v>
       </c>
       <c r="J5" t="n">
-        <v>44151.68385367382</v>
+        <v>44151.68385367381</v>
       </c>
       <c r="K5" t="n">
-        <v>44151.68385367382</v>
+        <v>44151.68385367381</v>
       </c>
       <c r="L5" t="n">
-        <v>44151.68385367382</v>
+        <v>44151.68385367381</v>
       </c>
       <c r="M5" t="n">
-        <v>42685.98220017733</v>
+        <v>42685.98220017732</v>
       </c>
       <c r="N5" t="n">
         <v>42685.98220017732</v>
@@ -26509,7 +26509,7 @@
         <v>42685.98220017733</v>
       </c>
       <c r="P5" t="n">
-        <v>42685.98220017733</v>
+        <v>42685.98220017731</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>322878.3495601686</v>
+        <v>322873.8831759635</v>
       </c>
       <c r="C6" t="n">
-        <v>322878.3495601685</v>
+        <v>322873.883175963</v>
       </c>
       <c r="D6" t="n">
-        <v>322878.3495601684</v>
+        <v>322873.8831759631</v>
       </c>
       <c r="E6" t="n">
-        <v>47878.17538930314</v>
+        <v>47596.87835191996</v>
       </c>
       <c r="F6" t="n">
-        <v>316067.6711426106</v>
+        <v>315786.3741052274</v>
       </c>
       <c r="G6" t="n">
-        <v>262205.5515644954</v>
+        <v>262177.882777693</v>
       </c>
       <c r="H6" t="n">
-        <v>352173.7730491138</v>
+        <v>352146.1042623112</v>
       </c>
       <c r="I6" t="n">
-        <v>344986.3217154046</v>
+        <v>344985.6110645861</v>
       </c>
       <c r="J6" t="n">
         <v>160415.5948605787</v>
       </c>
       <c r="K6" t="n">
-        <v>335215.5718567859</v>
+        <v>335215.5718567872</v>
       </c>
       <c r="L6" t="n">
-        <v>245247.3503721676</v>
+        <v>245247.350372168</v>
       </c>
       <c r="M6" t="n">
-        <v>328273.7188749195</v>
+        <v>328273.7188749199</v>
       </c>
       <c r="N6" t="n">
+        <v>338911.9811649209</v>
+      </c>
+      <c r="O6" t="n">
+        <v>239396.0690779423</v>
+      </c>
+      <c r="P6" t="n">
         <v>338911.9811649204</v>
-      </c>
-      <c r="O6" t="n">
-        <v>239396.0690779422</v>
-      </c>
-      <c r="P6" t="n">
-        <v>338911.9811649201</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>337.8964638257669</v>
       </c>
       <c r="J2" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="K2" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="L2" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="M2" t="n">
         <v>250.1529948269971</v>
@@ -26722,7 +26722,7 @@
         <v>250.1529948269971</v>
       </c>
       <c r="O2" t="n">
-        <v>250.1529948269971</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="P2" t="n">
         <v>250.1529948269971</v>
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>93.54304758964463</v>
+      </c>
+      <c r="F3" t="n">
         <v>93.54304758964493</v>
-      </c>
-      <c r="F3" t="n">
-        <v>93.54304758964463</v>
       </c>
       <c r="G3" t="n">
         <v>93.54304758964463</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="F4" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="I4" t="n">
-        <v>77.40126617658943</v>
+        <v>77.40126617658959</v>
       </c>
       <c r="J4" t="n">
-        <v>365.1359931691012</v>
+        <v>365.1359931691008</v>
       </c>
       <c r="K4" t="n">
-        <v>365.1359931691012</v>
+        <v>365.1359931691008</v>
       </c>
       <c r="L4" t="n">
-        <v>365.1359931691012</v>
+        <v>365.1359931691008</v>
       </c>
       <c r="M4" t="n">
-        <v>322.641967773228</v>
+        <v>322.6419677732277</v>
       </c>
       <c r="N4" t="n">
-        <v>322.6419677732279</v>
+        <v>322.6419677732277</v>
       </c>
       <c r="O4" t="n">
-        <v>322.6419677732279</v>
+        <v>322.6419677732277</v>
       </c>
       <c r="P4" t="n">
-        <v>322.6419677732279</v>
+        <v>322.6419677732277</v>
       </c>
     </row>
   </sheetData>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>124.394890108723</v>
+        <v>124.3948901087231</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>112.460276855773</v>
+        <v>112.4602768557729</v>
       </c>
       <c r="M2" t="n">
         <v>13.29782786250098</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>124.394890108723</v>
+        <v>124.3948901087232</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>93.54304758964493</v>
+        <v>93.54304758964463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>34.90724078071621</v>
+        <v>34.90724078071653</v>
       </c>
       <c r="J4" t="n">
-        <v>287.7347269925118</v>
+        <v>287.7347269925112</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>124.394890108723</v>
+        <v>124.3948901087231</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,28 +28111,28 @@
         <v>225.4361869699939</v>
       </c>
       <c r="J11" t="n">
-        <v>79.38441504035346</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="K11" t="n">
         <v>225.4361869699939</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>225.4361869699939</v>
       </c>
-      <c r="M11" t="n">
+      <c r="P11" t="n">
+        <v>19.50187917374374</v>
+      </c>
+      <c r="Q11" t="n">
         <v>225.4361869699939</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>90.08314682857697</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>93.02339340615981</v>
       </c>
       <c r="R11" t="n">
         <v>225.4361869699939</v>
@@ -28178,43 +28178,43 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>201.3174645158014</v>
       </c>
       <c r="G12" t="n">
-        <v>191.2550379904892</v>
+        <v>148.761012594616</v>
       </c>
       <c r="H12" t="n">
-        <v>125.893992481459</v>
+        <v>125.8939924814591</v>
       </c>
       <c r="I12" t="n">
         <v>114.4898231888801</v>
       </c>
       <c r="J12" t="n">
-        <v>135.7323687962716</v>
+        <v>135.7323687962717</v>
       </c>
       <c r="K12" t="n">
-        <v>135.676231179775</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L12" t="n">
-        <v>152.5154004578739</v>
+        <v>125.3490926623394</v>
       </c>
       <c r="M12" t="n">
-        <v>122.4225604485059</v>
+        <v>122.422560448506</v>
       </c>
       <c r="N12" t="n">
-        <v>107.9066134679086</v>
+        <v>107.9066134679088</v>
       </c>
       <c r="O12" t="n">
-        <v>126.0954398958499</v>
+        <v>126.09543989585</v>
       </c>
       <c r="P12" t="n">
-        <v>125.0272939704078</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q12" t="n">
-        <v>145.0940204505215</v>
+        <v>145.0940204505216</v>
       </c>
       <c r="R12" t="n">
-        <v>165.2365855749132</v>
+        <v>192.4028933704482</v>
       </c>
       <c r="S12" t="n">
         <v>191.8955649522593</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>209.8643216185231</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
@@ -28254,7 +28254,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>184.170166608098</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
@@ -28266,34 +28266,34 @@
         <v>165.9467011478387</v>
       </c>
       <c r="I13" t="n">
-        <v>207.7606743998437</v>
+        <v>165.2666490039705</v>
       </c>
       <c r="J13" t="n">
-        <v>121.2121579575505</v>
+        <v>175.2558432882303</v>
       </c>
       <c r="K13" t="n">
-        <v>137.7981397517308</v>
+        <v>137.7981397517309</v>
       </c>
       <c r="L13" t="n">
-        <v>139.4805673535853</v>
+        <v>181.9745927494584</v>
       </c>
       <c r="M13" t="n">
-        <v>185.5414691957506</v>
+        <v>143.0474437998775</v>
       </c>
       <c r="N13" t="n">
-        <v>129.9630835905928</v>
+        <v>129.9630835905929</v>
       </c>
       <c r="O13" t="n">
-        <v>39.42323441888094</v>
+        <v>145.0742342239729</v>
       </c>
       <c r="P13" t="n">
-        <v>147.6265796099169</v>
+        <v>60.14232658241831</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.3688647731046</v>
+        <v>146.6229159040317</v>
       </c>
       <c r="R13" t="n">
-        <v>204.0484816844983</v>
+        <v>204.0484816844984</v>
       </c>
       <c r="S13" t="n">
         <v>225.4361869699939</v>
@@ -28348,31 +28348,31 @@
         <v>225.4361869699939</v>
       </c>
       <c r="J14" t="n">
-        <v>193.0308642450647</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="K14" t="n">
-        <v>10.62810875858561</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>225.4361869699939</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>186.7522018923573</v>
       </c>
       <c r="O14" t="n">
         <v>225.4361869699939</v>
       </c>
       <c r="P14" t="n">
-        <v>19.50187917374374</v>
+        <v>19.50187917374356</v>
       </c>
       <c r="Q14" t="n">
-        <v>225.4361869699939</v>
+        <v>160.2092337605675</v>
       </c>
       <c r="R14" t="n">
-        <v>225.4361869699939</v>
+        <v>196.8079111785514</v>
       </c>
       <c r="S14" t="n">
         <v>225.4361869699939</v>
@@ -28409,7 +28409,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>201.6663404724516</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28421,37 +28421,37 @@
         <v>148.761012594616</v>
       </c>
       <c r="H15" t="n">
-        <v>125.8939924814591</v>
+        <v>125.893992481459</v>
       </c>
       <c r="I15" t="n">
         <v>114.4898231888801</v>
       </c>
       <c r="J15" t="n">
-        <v>135.7323687962717</v>
+        <v>135.7323687962716</v>
       </c>
       <c r="K15" t="n">
-        <v>135.6762311797751</v>
+        <v>135.676231179775</v>
       </c>
       <c r="L15" t="n">
-        <v>125.3490926623394</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>149.5888682440407</v>
+        <v>122.4225604485059</v>
       </c>
       <c r="N15" t="n">
-        <v>107.9066134679088</v>
+        <v>107.9066134679086</v>
       </c>
       <c r="O15" t="n">
-        <v>168.5894652917232</v>
+        <v>153.2617476913847</v>
       </c>
       <c r="P15" t="n">
-        <v>125.0272939704079</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>145.0940204505216</v>
+        <v>145.0940204505215</v>
       </c>
       <c r="R15" t="n">
-        <v>165.2365855749133</v>
+        <v>165.2365855749132</v>
       </c>
       <c r="S15" t="n">
         <v>191.8955649522593</v>
@@ -28497,7 +28497,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>211.2085563396402</v>
+        <v>211.20855633964</v>
       </c>
       <c r="H16" t="n">
         <v>165.9467011478387</v>
@@ -28506,31 +28506,31 @@
         <v>165.2666490039705</v>
       </c>
       <c r="J16" t="n">
-        <v>163.7061833534238</v>
+        <v>143.0084423346752</v>
       </c>
       <c r="K16" t="n">
-        <v>68.62817916039604</v>
+        <v>137.7981397517308</v>
       </c>
       <c r="L16" t="n">
-        <v>66.44436170821308</v>
+        <v>171.7279683071402</v>
       </c>
       <c r="M16" t="n">
-        <v>27.37318353055668</v>
+        <v>143.0474437998774</v>
       </c>
       <c r="N16" t="n">
-        <v>18.62520307538163</v>
+        <v>129.9630835905928</v>
       </c>
       <c r="O16" t="n">
-        <v>39.42323441888101</v>
+        <v>39.42323441888094</v>
       </c>
       <c r="P16" t="n">
-        <v>60.14232658241831</v>
+        <v>190.1206050057899</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.3688647731046</v>
+        <v>170.7111018018876</v>
       </c>
       <c r="R16" t="n">
-        <v>204.0484816844984</v>
+        <v>204.0484816844983</v>
       </c>
       <c r="S16" t="n">
         <v>225.4361869699939</v>
@@ -28585,10 +28585,10 @@
         <v>242.1920463707887</v>
       </c>
       <c r="J17" t="n">
-        <v>188.9590216718574</v>
+        <v>212.7194365320904</v>
       </c>
       <c r="K17" t="n">
-        <v>220.6743361047004</v>
+        <v>263.1683615005734</v>
       </c>
       <c r="L17" t="n">
         <v>228.2911288462876</v>
@@ -28606,22 +28606,22 @@
         <v>228.0274420688645</v>
       </c>
       <c r="Q17" t="n">
-        <v>271.3806024306263</v>
+        <v>230.6035073537782</v>
       </c>
       <c r="R17" t="n">
-        <v>281.8861766521173</v>
+        <v>239.3921512562441</v>
       </c>
       <c r="S17" t="n">
-        <v>270.7098369098155</v>
+        <v>228.2158115139423</v>
       </c>
       <c r="T17" t="n">
-        <v>222.6001247886366</v>
+        <v>265.0941501845097</v>
       </c>
       <c r="U17" t="n">
-        <v>292.6470202228703</v>
+        <v>292.6470202228701</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
@@ -28819,16 +28819,16 @@
         <v>337.8964638257669</v>
       </c>
       <c r="I20" t="n">
-        <v>242.1920463707887</v>
+        <v>284.6860717666618</v>
       </c>
       <c r="J20" t="n">
-        <v>212.7194365320906</v>
+        <v>229.7361167487053</v>
       </c>
       <c r="K20" t="n">
-        <v>220.6743361047004</v>
+        <v>263.1683615005734</v>
       </c>
       <c r="L20" t="n">
-        <v>270.7851542421608</v>
+        <v>228.2911288462876</v>
       </c>
       <c r="M20" t="n">
         <v>214.9908843158649</v>
@@ -28846,19 +28846,19 @@
         <v>230.6035073537782</v>
       </c>
       <c r="R20" t="n">
-        <v>239.3921512562441</v>
+        <v>281.8861766521172</v>
       </c>
       <c r="S20" t="n">
-        <v>270.7098369098155</v>
+        <v>228.2158115139423</v>
       </c>
       <c r="T20" t="n">
-        <v>265.0941501845099</v>
+        <v>222.6001247886366</v>
       </c>
       <c r="U20" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="V20" t="n">
-        <v>337.8964638257669</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
         <v>337.8964638257669</v>
@@ -29065,19 +29065,19 @@
         <v>220.6743361047004</v>
       </c>
       <c r="L23" t="n">
-        <v>305.692395022877</v>
+        <v>228.2911288462876</v>
       </c>
       <c r="M23" t="n">
-        <v>214.9908843158649</v>
+        <v>292.3921504924546</v>
       </c>
       <c r="N23" t="n">
-        <v>290.1852245120112</v>
+        <v>270.0412204094737</v>
       </c>
       <c r="O23" t="n">
         <v>217.3592102577956</v>
       </c>
       <c r="P23" t="n">
-        <v>302.3013843595311</v>
+        <v>228.0274420688645</v>
       </c>
       <c r="Q23" t="n">
         <v>230.6035073537782</v>
@@ -29086,16 +29086,16 @@
         <v>239.3921512562441</v>
       </c>
       <c r="S23" t="n">
-        <v>228.2158115139423</v>
+        <v>305.6170776905319</v>
       </c>
       <c r="T23" t="n">
-        <v>222.6001247886366</v>
+        <v>300.0013909652262</v>
       </c>
       <c r="U23" t="n">
-        <v>327.5542610035865</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="C26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="D26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="E26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="F26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="G26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="H26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="I26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="J26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="K26" t="n">
-        <v>10.62810875858561</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="N26" t="n">
-        <v>186.0748653628077</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="O26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="P26" t="n">
-        <v>236.855166964496</v>
+        <v>19.50187917374374</v>
       </c>
       <c r="Q26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="R26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="S26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="T26" t="n">
-        <v>222.6001247886366</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="U26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="V26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="W26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="X26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="Y26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
     </row>
     <row r="27">
@@ -29375,46 +29375,46 @@
         <v>114.4898231888801</v>
       </c>
       <c r="J27" t="n">
-        <v>54.02537789568677</v>
+        <v>135.7323687962717</v>
       </c>
       <c r="K27" t="n">
-        <v>170.384069744608</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>71.73470836793668</v>
+        <v>125.3490926623394</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>122.422560448506</v>
       </c>
       <c r="N27" t="n">
-        <v>107.9066134679088</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>126.09543989585</v>
       </c>
       <c r="P27" t="n">
-        <v>125.0272939704079</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>145.0940204505216</v>
       </c>
       <c r="R27" t="n">
-        <v>165.2365855749133</v>
+        <v>135.7385435371774</v>
       </c>
       <c r="S27" t="n">
-        <v>191.8955649522593</v>
+        <v>226.1592902245254</v>
       </c>
       <c r="T27" t="n">
         <v>215.0370598435168</v>
       </c>
       <c r="U27" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="V27" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="W27" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
@@ -29433,7 +29433,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>180.01003331036</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
@@ -29454,13 +29454,13 @@
         <v>165.2666490039705</v>
       </c>
       <c r="J28" t="n">
-        <v>121.2121579575505</v>
+        <v>143.0084423346753</v>
       </c>
       <c r="K28" t="n">
         <v>68.62817916039604</v>
       </c>
       <c r="L28" t="n">
-        <v>236.855166964496</v>
+        <v>139.4805673535853</v>
       </c>
       <c r="M28" t="n">
         <v>27.37318353055668</v>
@@ -29469,10 +29469,10 @@
         <v>18.62520307538163</v>
       </c>
       <c r="O28" t="n">
-        <v>163.5159071128498</v>
+        <v>39.42323441888101</v>
       </c>
       <c r="P28" t="n">
-        <v>60.14232658241831</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="Q28" t="n">
         <v>128.3688647731046</v>
@@ -29484,16 +29484,16 @@
         <v>235.6777742193615</v>
       </c>
       <c r="T28" t="n">
-        <v>223.8203341576757</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="U28" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="V28" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="W28" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="C29" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="D29" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="E29" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="F29" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="G29" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="H29" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="I29" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="J29" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="K29" t="n">
         <v>10.62810875858561</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="M29" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="N29" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="O29" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="P29" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="Q29" t="n">
-        <v>236.855166964496</v>
+        <v>93.02339340615995</v>
       </c>
       <c r="R29" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="S29" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="T29" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="U29" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="V29" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="W29" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="X29" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="Y29" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
     </row>
     <row r="30">
@@ -29612,31 +29612,31 @@
         <v>114.4898231888801</v>
       </c>
       <c r="J30" t="n">
-        <v>135.7323687962717</v>
+        <v>54.02537789568677</v>
       </c>
       <c r="K30" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>125.3490926623394</v>
       </c>
       <c r="M30" t="n">
-        <v>122.422560448506</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>33.43350619722736</v>
+        <v>5.574558586570365</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>126.09543989585</v>
       </c>
       <c r="P30" t="n">
-        <v>125.0272939704079</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>145.0940204505216</v>
+        <v>179.8018590153538</v>
       </c>
       <c r="R30" t="n">
-        <v>199.9444241397462</v>
+        <v>135.7385435371774</v>
       </c>
       <c r="S30" t="n">
         <v>191.8955649522593</v>
@@ -29645,13 +29645,13 @@
         <v>215.0370598435168</v>
       </c>
       <c r="U30" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="V30" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="W30" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
@@ -29667,13 +29667,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>199.6254700001372</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>167.1911995858789</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -29691,7 +29691,7 @@
         <v>165.2666490039705</v>
       </c>
       <c r="J31" t="n">
-        <v>121.2121579575505</v>
+        <v>143.0084423346753</v>
       </c>
       <c r="K31" t="n">
         <v>68.62817916039604</v>
@@ -29700,19 +29700,19 @@
         <v>34.19696075465806</v>
       </c>
       <c r="M31" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="N31" t="n">
         <v>18.62520307538163</v>
       </c>
       <c r="O31" t="n">
-        <v>39.42323441888101</v>
+        <v>145.0742342239729</v>
       </c>
       <c r="P31" t="n">
         <v>60.14232658241831</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.3688647731046</v>
+        <v>170.7111018018876</v>
       </c>
       <c r="R31" t="n">
         <v>204.0484816844984</v>
@@ -29724,13 +29724,13 @@
         <v>223.8203341576757</v>
       </c>
       <c r="U31" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="V31" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="W31" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="X31" t="n">
         <v>221.9194554082425</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="C32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="D32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="E32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="F32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="G32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="H32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="I32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="J32" t="n">
-        <v>79.38441504035356</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="K32" t="n">
-        <v>10.62810875858561</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="L32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="M32" t="n">
-        <v>236.8551669644961</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="O32" t="n">
-        <v>92.43540814659465</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="P32" t="n">
-        <v>236.8551669644961</v>
+        <v>19.50187917374374</v>
       </c>
       <c r="Q32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="R32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="S32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="T32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="U32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="V32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="W32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="X32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="Y32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
     </row>
     <row r="33">
@@ -29846,25 +29846,25 @@
         <v>125.8939924814591</v>
       </c>
       <c r="I33" t="n">
-        <v>114.4898231888801</v>
+        <v>149.1976617537124</v>
       </c>
       <c r="J33" t="n">
-        <v>135.7323687962717</v>
+        <v>54.02537789568677</v>
       </c>
       <c r="K33" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>125.3490926623394</v>
+        <v>29.55356392032239</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>107.9066134679088</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>126.09543989585</v>
       </c>
       <c r="P33" t="n">
         <v>125.0272939704079</v>
@@ -29873,7 +29873,7 @@
         <v>145.0940204505216</v>
       </c>
       <c r="R33" t="n">
-        <v>199.9444241397459</v>
+        <v>135.7385435371774</v>
       </c>
       <c r="S33" t="n">
         <v>191.8955649522593</v>
@@ -29882,13 +29882,13 @@
         <v>215.0370598435168</v>
       </c>
       <c r="U33" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="V33" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="W33" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
@@ -29928,7 +29928,7 @@
         <v>165.2666490039705</v>
       </c>
       <c r="J34" t="n">
-        <v>236.8551669644961</v>
+        <v>143.0084423346753</v>
       </c>
       <c r="K34" t="n">
         <v>137.7981397517309</v>
@@ -29937,19 +29937,19 @@
         <v>34.19696075465806</v>
       </c>
       <c r="M34" t="n">
-        <v>143.0474437998775</v>
+        <v>27.37318353055668</v>
       </c>
       <c r="N34" t="n">
-        <v>49.26193217258427</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="O34" t="n">
-        <v>145.0742342239729</v>
+        <v>39.42323441888101</v>
       </c>
       <c r="P34" t="n">
-        <v>60.14232658241831</v>
+        <v>147.6265796099169</v>
       </c>
       <c r="Q34" t="n">
-        <v>192.6806496718541</v>
+        <v>170.7111018018876</v>
       </c>
       <c r="R34" t="n">
         <v>204.0484816844984</v>
@@ -29958,16 +29958,16 @@
         <v>235.6777742193615</v>
       </c>
       <c r="T34" t="n">
-        <v>223.8203341576757</v>
+        <v>232.7445232835595</v>
       </c>
       <c r="U34" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="V34" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="W34" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644962</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
@@ -30004,7 +30004,7 @@
         <v>250.1529948269971</v>
       </c>
       <c r="I35" t="n">
-        <v>250.1529948269971</v>
+        <v>242.1920463707887</v>
       </c>
       <c r="J35" t="n">
         <v>250.1529948269971</v>
@@ -30013,13 +30013,13 @@
         <v>250.1529948269971</v>
       </c>
       <c r="L35" t="n">
+        <v>151.5394874613356</v>
+      </c>
+      <c r="M35" t="n">
+        <v>246.3480823857372</v>
+      </c>
+      <c r="N35" t="n">
         <v>250.1529948269971</v>
-      </c>
-      <c r="M35" t="n">
-        <v>250.1529948269971</v>
-      </c>
-      <c r="N35" t="n">
-        <v>192.6876711100524</v>
       </c>
       <c r="O35" t="n">
         <v>250.1529948269971</v>
@@ -30031,7 +30031,7 @@
         <v>93.02339340615995</v>
       </c>
       <c r="R35" t="n">
-        <v>250.1529948269971</v>
+        <v>196.8079111785515</v>
       </c>
       <c r="S35" t="n">
         <v>250.1529948269971</v>
@@ -30083,7 +30083,7 @@
         <v>125.8939924814591</v>
       </c>
       <c r="I36" t="n">
-        <v>114.4898231888801</v>
+        <v>107.9283390365971</v>
       </c>
       <c r="J36" t="n">
         <v>135.7323687962717</v>
@@ -30098,16 +30098,16 @@
         <v>122.422560448506</v>
       </c>
       <c r="N36" t="n">
-        <v>124.7942665135312</v>
+        <v>107.9066134679088</v>
       </c>
       <c r="O36" t="n">
         <v>126.09543989585</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q36" t="n">
-        <v>8.963937997691364</v>
+        <v>145.0940204505216</v>
       </c>
       <c r="R36" t="n">
         <v>165.2365855749133</v>
@@ -30116,10 +30116,10 @@
         <v>191.8955649522593</v>
       </c>
       <c r="T36" t="n">
-        <v>215.0370598435168</v>
+        <v>219.0008670406089</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2291489784668</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -30168,22 +30168,22 @@
         <v>121.2121579575505</v>
       </c>
       <c r="K37" t="n">
-        <v>218.0573222148324</v>
+        <v>68.62817916039604</v>
       </c>
       <c r="L37" t="n">
         <v>139.4805673535853</v>
       </c>
       <c r="M37" t="n">
-        <v>143.0474437998775</v>
+        <v>27.37318353055668</v>
       </c>
       <c r="N37" t="n">
         <v>18.62520307538163</v>
       </c>
       <c r="O37" t="n">
-        <v>145.0742342239729</v>
+        <v>225.3334166870742</v>
       </c>
       <c r="P37" t="n">
-        <v>60.14232658241831</v>
+        <v>147.6265796099169</v>
       </c>
       <c r="Q37" t="n">
         <v>170.7111018018876</v>
@@ -30244,34 +30244,34 @@
         <v>250.1529948269971</v>
       </c>
       <c r="J38" t="n">
-        <v>105.3164561805721</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="K38" t="n">
-        <v>250.1529948269971</v>
+        <v>10.62810875858561</v>
       </c>
       <c r="L38" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="M38" t="n">
-        <v>246.3480823857373</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="O38" t="n">
-        <v>250.1529948269971</v>
+        <v>92.58024994310907</v>
       </c>
       <c r="P38" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="Q38" t="n">
+        <v>93.02339340615995</v>
+      </c>
+      <c r="R38" t="n">
         <v>250.1529948269971</v>
       </c>
-      <c r="R38" t="n">
-        <v>196.8079111785515</v>
-      </c>
       <c r="S38" t="n">
-        <v>250.1529948269971</v>
+        <v>228.2158115139423</v>
       </c>
       <c r="T38" t="n">
         <v>250.1529948269971</v>
@@ -30320,19 +30320,19 @@
         <v>125.8939924814591</v>
       </c>
       <c r="I39" t="n">
-        <v>131.3774762345025</v>
+        <v>114.4898231888801</v>
       </c>
       <c r="J39" t="n">
         <v>135.7323687962717</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L39" t="n">
         <v>125.3490926623394</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>41.97000965971947</v>
       </c>
       <c r="N39" t="n">
         <v>107.9066134679088</v>
@@ -30347,7 +30347,7 @@
         <v>145.0940204505216</v>
       </c>
       <c r="R39" t="n">
-        <v>165.2365855749133</v>
+        <v>172.6201647089407</v>
       </c>
       <c r="S39" t="n">
         <v>191.8955649522593</v>
@@ -30359,7 +30359,7 @@
         <v>237.2291489784668</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="W39" t="n">
         <v>250.1529948269971</v>
@@ -30405,34 +30405,34 @@
         <v>143.0084423346753</v>
       </c>
       <c r="K40" t="n">
-        <v>171.9528090723337</v>
+        <v>137.7981397517309</v>
       </c>
       <c r="L40" t="n">
         <v>139.4805673535853</v>
       </c>
       <c r="M40" t="n">
-        <v>27.37318353055668</v>
+        <v>143.0474437998775</v>
       </c>
       <c r="N40" t="n">
         <v>129.9630835905929</v>
       </c>
       <c r="O40" t="n">
-        <v>145.0742342239729</v>
+        <v>39.42323441888101</v>
       </c>
       <c r="P40" t="n">
-        <v>60.14232658241831</v>
+        <v>147.6265796099169</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.7111018018876</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="R40" t="n">
-        <v>250.1529948269971</v>
+        <v>204.0484816844984</v>
       </c>
       <c r="S40" t="n">
         <v>235.6777742193615</v>
       </c>
       <c r="T40" t="n">
-        <v>223.8203341576757</v>
+        <v>224.6376235956674</v>
       </c>
       <c r="U40" t="n">
         <v>250.1529948269971</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>250.1529948269971</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="C41" t="n">
-        <v>250.1529948269971</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="D41" t="n">
-        <v>250.1529948269971</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="E41" t="n">
-        <v>250.1529948269971</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="F41" t="n">
-        <v>250.1529948269971</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="G41" t="n">
-        <v>250.1529948269971</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="H41" t="n">
-        <v>250.1529948269971</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="I41" t="n">
-        <v>250.1529948269971</v>
+        <v>242.1920463707887</v>
       </c>
       <c r="J41" t="n">
-        <v>250.1529948269971</v>
+        <v>79.38441504035356</v>
       </c>
       <c r="K41" t="n">
-        <v>250.1529948269971</v>
+        <v>241.054832628585</v>
       </c>
       <c r="L41" t="n">
-        <v>250.1529948269971</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="M41" t="n">
-        <v>9.805602020558517</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>250.1529948269971</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="P41" t="n">
-        <v>250.1529948269971</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.1529948269971</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="R41" t="n">
-        <v>250.1529948269971</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="S41" t="n">
-        <v>228.2158115139423</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="T41" t="n">
-        <v>250.1529948269971</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="U41" t="n">
-        <v>250.1529948269971</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="V41" t="n">
-        <v>250.1529948269971</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="W41" t="n">
-        <v>250.1529948269971</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="X41" t="n">
-        <v>250.1529948269971</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="Y41" t="n">
-        <v>250.1529948269971</v>
+        <v>250.1529948269972</v>
       </c>
     </row>
     <row r="42">
@@ -30557,28 +30557,28 @@
         <v>125.8939924814591</v>
       </c>
       <c r="I42" t="n">
-        <v>107.9283390365971</v>
+        <v>114.4898231888801</v>
       </c>
       <c r="J42" t="n">
         <v>135.7323687962717</v>
       </c>
       <c r="K42" t="n">
-        <v>152.5638842253975</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L42" t="n">
         <v>125.3490926623394</v>
       </c>
       <c r="M42" t="n">
-        <v>122.422560448506</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>107.9066134679088</v>
       </c>
       <c r="O42" t="n">
-        <v>126.09543989585</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>125.0272939704079</v>
+        <v>141.9149470160302</v>
       </c>
       <c r="Q42" t="n">
         <v>145.0940204505216</v>
@@ -30599,7 +30599,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>250.1529948269971</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30642,16 +30642,16 @@
         <v>121.2121579575505</v>
       </c>
       <c r="K43" t="n">
-        <v>68.62817916039604</v>
+        <v>137.7981397517309</v>
       </c>
       <c r="L43" t="n">
         <v>139.4805673535853</v>
       </c>
       <c r="M43" t="n">
-        <v>223.306626262979</v>
+        <v>143.0474437998775</v>
       </c>
       <c r="N43" t="n">
-        <v>18.62520307538163</v>
+        <v>210.2222660536941</v>
       </c>
       <c r="O43" t="n">
         <v>39.42323441888101</v>
@@ -30672,13 +30672,13 @@
         <v>223.8203341576757</v>
       </c>
       <c r="U43" t="n">
-        <v>250.1529948269971</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>250.1529948269971</v>
+        <v>250.1529948269972</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30715,10 +30715,10 @@
         <v>250.1529948269971</v>
       </c>
       <c r="I44" t="n">
-        <v>242.1920463707887</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="J44" t="n">
-        <v>250.1529948269971</v>
+        <v>79.38441504035356</v>
       </c>
       <c r="K44" t="n">
         <v>250.1529948269971</v>
@@ -30727,16 +30727,16 @@
         <v>250.1529948269971</v>
       </c>
       <c r="M44" t="n">
-        <v>250.1529948269971</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="P44" t="n">
-        <v>127.5213595284896</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="Q44" t="n">
         <v>250.1529948269971</v>
@@ -30797,28 +30797,28 @@
         <v>114.4898231888801</v>
       </c>
       <c r="J45" t="n">
-        <v>135.7323687962717</v>
+        <v>101.0505201237409</v>
       </c>
       <c r="K45" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>142.2367457079618</v>
       </c>
       <c r="M45" t="n">
-        <v>139.3102134941284</v>
+        <v>122.422560448506</v>
       </c>
       <c r="N45" t="n">
         <v>107.9066134679088</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>126.09543989585</v>
       </c>
       <c r="P45" t="n">
         <v>125.0272939704079</v>
       </c>
       <c r="Q45" t="n">
-        <v>145.0940204505216</v>
+        <v>8.963937997691364</v>
       </c>
       <c r="R45" t="n">
         <v>165.2365855749133</v>
@@ -30876,25 +30876,25 @@
         <v>165.2666490039705</v>
       </c>
       <c r="J46" t="n">
-        <v>121.2121579575505</v>
+        <v>143.0084423346753</v>
       </c>
       <c r="K46" t="n">
-        <v>68.62817916039604</v>
+        <v>137.7981397517309</v>
       </c>
       <c r="L46" t="n">
-        <v>139.4805673535853</v>
+        <v>219.7397498166869</v>
       </c>
       <c r="M46" t="n">
-        <v>27.37318353055668</v>
+        <v>143.0474437998775</v>
       </c>
       <c r="N46" t="n">
-        <v>18.62520307538163</v>
+        <v>129.9630835905929</v>
       </c>
       <c r="O46" t="n">
-        <v>225.3334166870744</v>
+        <v>145.0742342239729</v>
       </c>
       <c r="P46" t="n">
-        <v>147.6265796099169</v>
+        <v>60.14232658241831</v>
       </c>
       <c r="Q46" t="n">
         <v>128.3688647731046</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3760524526216878</v>
+        <v>0.3760524526216867</v>
       </c>
       <c r="H11" t="n">
-        <v>3.851247180411862</v>
+        <v>3.85124718041185</v>
       </c>
       <c r="I11" t="n">
-        <v>14.49776217969764</v>
+        <v>14.49776217969759</v>
       </c>
       <c r="J11" t="n">
-        <v>31.91698185070001</v>
+        <v>31.91698185069991</v>
       </c>
       <c r="K11" t="n">
-        <v>47.83528217017606</v>
+        <v>47.83528217017592</v>
       </c>
       <c r="L11" t="n">
-        <v>59.34389741709706</v>
+        <v>59.34389741709687</v>
       </c>
       <c r="M11" t="n">
-        <v>66.031520221408</v>
+        <v>66.03152022140779</v>
       </c>
       <c r="N11" t="n">
-        <v>67.09997925241937</v>
+        <v>67.09997925241916</v>
       </c>
       <c r="O11" t="n">
-        <v>63.36060767666246</v>
+        <v>63.36060767666226</v>
       </c>
       <c r="P11" t="n">
-        <v>54.07681275256454</v>
+        <v>54.07681275256436</v>
       </c>
       <c r="Q11" t="n">
-        <v>40.60943429305033</v>
+        <v>40.60943429305019</v>
       </c>
       <c r="R11" t="n">
-        <v>23.62220487699712</v>
+        <v>23.62220487699705</v>
       </c>
       <c r="S11" t="n">
-        <v>8.569295264116722</v>
+        <v>8.569295264116693</v>
       </c>
       <c r="T11" t="n">
-        <v>1.646169611351439</v>
+        <v>1.646169611351434</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03008419620973503</v>
+        <v>0.03008419620973493</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2012058004758401</v>
+        <v>0.2012058004758394</v>
       </c>
       <c r="H12" t="n">
-        <v>1.943224441437719</v>
+        <v>1.943224441437712</v>
       </c>
       <c r="I12" t="n">
-        <v>6.927480411119932</v>
+        <v>6.92748041111991</v>
       </c>
       <c r="J12" t="n">
-        <v>19.00953573706171</v>
+        <v>19.00953573706165</v>
       </c>
       <c r="K12" t="n">
-        <v>32.49032436894299</v>
+        <v>32.49032436894289</v>
       </c>
       <c r="L12" t="n">
-        <v>43.68725066910729</v>
+        <v>43.68725066910715</v>
       </c>
       <c r="M12" t="n">
-        <v>50.98096093635648</v>
+        <v>50.98096093635632</v>
       </c>
       <c r="N12" t="n">
-        <v>52.33027527375806</v>
+        <v>52.3302752737579</v>
       </c>
       <c r="O12" t="n">
-        <v>47.87197832637234</v>
+        <v>47.87197832637219</v>
       </c>
       <c r="P12" t="n">
-        <v>38.42148307507511</v>
+        <v>38.42148307507498</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.68374393442478</v>
+        <v>25.68374393442469</v>
       </c>
       <c r="R12" t="n">
-        <v>12.49240926112278</v>
+        <v>12.49240926112273</v>
       </c>
       <c r="S12" t="n">
-        <v>3.737309495680623</v>
+        <v>3.737309495680611</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8110005729706006</v>
+        <v>0.811000572970598</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0132372237155158</v>
+        <v>0.01323722371551576</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1686841841780482</v>
+        <v>0.1686841841780477</v>
       </c>
       <c r="H13" t="n">
-        <v>1.499755746601193</v>
+        <v>1.499755746601189</v>
       </c>
       <c r="I13" t="n">
-        <v>5.072793466008942</v>
+        <v>5.072793466008926</v>
       </c>
       <c r="J13" t="n">
-        <v>11.92597182138801</v>
+        <v>11.92597182138797</v>
       </c>
       <c r="K13" t="n">
-        <v>19.59803521632232</v>
+        <v>19.59803521632226</v>
       </c>
       <c r="L13" t="n">
-        <v>25.07873770952546</v>
+        <v>25.07873770952538</v>
       </c>
       <c r="M13" t="n">
-        <v>26.44201261620077</v>
+        <v>26.44201261620069</v>
       </c>
       <c r="N13" t="n">
-        <v>25.8132806569917</v>
+        <v>25.81328065699162</v>
       </c>
       <c r="O13" t="n">
-        <v>23.8427426872754</v>
+        <v>23.84274268727533</v>
       </c>
       <c r="P13" t="n">
-        <v>20.4015853300432</v>
+        <v>20.40158533004314</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.12500018603638</v>
+        <v>14.12500018603634</v>
       </c>
       <c r="R13" t="n">
-        <v>7.584654317678421</v>
+        <v>7.584654317678396</v>
       </c>
       <c r="S13" t="n">
-        <v>2.939705282448348</v>
+        <v>2.939705282448339</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7207415142152968</v>
+        <v>0.7207415142152944</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009200955500620823</v>
+        <v>0.009200955500620793</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3760524526216867</v>
+        <v>0.3760524526216878</v>
       </c>
       <c r="H14" t="n">
-        <v>3.85124718041185</v>
+        <v>3.851247180411862</v>
       </c>
       <c r="I14" t="n">
-        <v>14.49776217969759</v>
+        <v>14.49776217969764</v>
       </c>
       <c r="J14" t="n">
-        <v>31.91698185069991</v>
+        <v>31.91698185070001</v>
       </c>
       <c r="K14" t="n">
-        <v>47.83528217017592</v>
+        <v>47.83528217017606</v>
       </c>
       <c r="L14" t="n">
-        <v>59.34389741709687</v>
+        <v>59.34389741709706</v>
       </c>
       <c r="M14" t="n">
-        <v>66.03152022140779</v>
+        <v>66.031520221408</v>
       </c>
       <c r="N14" t="n">
-        <v>67.09997925241916</v>
+        <v>67.09997925241937</v>
       </c>
       <c r="O14" t="n">
-        <v>63.36060767666226</v>
+        <v>63.36060767666246</v>
       </c>
       <c r="P14" t="n">
-        <v>54.07681275256436</v>
+        <v>54.07681275256454</v>
       </c>
       <c r="Q14" t="n">
-        <v>40.60943429305019</v>
+        <v>40.60943429305033</v>
       </c>
       <c r="R14" t="n">
-        <v>23.62220487699705</v>
+        <v>23.62220487699712</v>
       </c>
       <c r="S14" t="n">
-        <v>8.569295264116693</v>
+        <v>8.569295264116722</v>
       </c>
       <c r="T14" t="n">
-        <v>1.646169611351434</v>
+        <v>1.646169611351439</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03008419620973493</v>
+        <v>0.03008419620973503</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2012058004758394</v>
+        <v>0.2012058004758401</v>
       </c>
       <c r="H15" t="n">
-        <v>1.943224441437712</v>
+        <v>1.943224441437719</v>
       </c>
       <c r="I15" t="n">
-        <v>6.92748041111991</v>
+        <v>6.927480411119932</v>
       </c>
       <c r="J15" t="n">
-        <v>19.00953573706165</v>
+        <v>19.00953573706171</v>
       </c>
       <c r="K15" t="n">
-        <v>32.49032436894289</v>
+        <v>32.49032436894299</v>
       </c>
       <c r="L15" t="n">
-        <v>43.68725066910715</v>
+        <v>43.68725066910729</v>
       </c>
       <c r="M15" t="n">
-        <v>50.98096093635632</v>
+        <v>50.98096093635648</v>
       </c>
       <c r="N15" t="n">
-        <v>52.3302752737579</v>
+        <v>52.33027527375806</v>
       </c>
       <c r="O15" t="n">
-        <v>47.87197832637219</v>
+        <v>47.87197832637234</v>
       </c>
       <c r="P15" t="n">
-        <v>38.42148307507498</v>
+        <v>38.42148307507511</v>
       </c>
       <c r="Q15" t="n">
-        <v>25.68374393442469</v>
+        <v>25.68374393442478</v>
       </c>
       <c r="R15" t="n">
-        <v>12.49240926112273</v>
+        <v>12.49240926112278</v>
       </c>
       <c r="S15" t="n">
-        <v>3.737309495680611</v>
+        <v>3.737309495680623</v>
       </c>
       <c r="T15" t="n">
-        <v>0.811000572970598</v>
+        <v>0.8110005729706006</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01323722371551576</v>
+        <v>0.0132372237155158</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1686841841780477</v>
+        <v>0.1686841841780482</v>
       </c>
       <c r="H16" t="n">
-        <v>1.499755746601189</v>
+        <v>1.499755746601193</v>
       </c>
       <c r="I16" t="n">
-        <v>5.072793466008926</v>
+        <v>5.072793466008942</v>
       </c>
       <c r="J16" t="n">
-        <v>11.92597182138797</v>
+        <v>11.92597182138801</v>
       </c>
       <c r="K16" t="n">
-        <v>19.59803521632226</v>
+        <v>19.59803521632232</v>
       </c>
       <c r="L16" t="n">
-        <v>25.07873770952538</v>
+        <v>25.07873770952546</v>
       </c>
       <c r="M16" t="n">
-        <v>26.44201261620069</v>
+        <v>26.44201261620077</v>
       </c>
       <c r="N16" t="n">
-        <v>25.81328065699162</v>
+        <v>25.8132806569917</v>
       </c>
       <c r="O16" t="n">
-        <v>23.84274268727533</v>
+        <v>23.8427426872754</v>
       </c>
       <c r="P16" t="n">
-        <v>20.40158533004314</v>
+        <v>20.4015853300432</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.12500018603634</v>
+        <v>14.12500018603638</v>
       </c>
       <c r="R16" t="n">
-        <v>7.584654317678396</v>
+        <v>7.584654317678421</v>
       </c>
       <c r="S16" t="n">
-        <v>2.939705282448339</v>
+        <v>2.939705282448348</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7207415142152944</v>
+        <v>0.7207415142152968</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009200955500620793</v>
+        <v>0.009200955500620823</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35407,37 +35407,37 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="K11" t="n">
-        <v>4.761850865293717</v>
+        <v>4.761850865293539</v>
       </c>
       <c r="L11" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="N11" t="n">
-        <v>42.49402539587322</v>
+        <v>7.386968420111932</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="P11" t="n">
-        <v>36.01524421155431</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>28.62827579144241</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.836062181357335</v>
+        <v>2.836062181357301</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -35474,10 +35474,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="G12" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>27.16630779553465</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>27.16630779553491</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.24740095355499</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35550,7 +35550,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35562,19 +35562,19 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>32.24740095355506</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="M13" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4.071842573207272</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>4.761850865293717</v>
       </c>
       <c r="L14" t="n">
-        <v>42.49402539587322</v>
+        <v>42.35333818240449</v>
       </c>
       <c r="M14" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>42.49402539587322</v>
+        <v>36.15593142502273</v>
       </c>
       <c r="O14" t="n">
-        <v>8.076976712198395</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,13 +35668,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>28.62827579144243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.836062181357329</v>
+        <v>2.836062181357335</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -35705,7 +35705,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>27.16630779553465</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>42.49402539587322</v>
+        <v>27.16630779553482</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35793,7 +35793,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>32.24740095355501</v>
+        <v>32.24740095355497</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>23.76041486023301</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35902,22 +35902,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>40.77709507684805</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="U17" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36115,16 +36115,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="J20" t="n">
-        <v>23.76041486023317</v>
+        <v>40.77709507684789</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="L20" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36142,19 +36142,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>42.49402539587305</v>
       </c>
       <c r="S20" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>17.01668021661487</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36361,19 +36361,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>77.40126617658943</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>77.40126617658959</v>
       </c>
       <c r="N23" t="n">
-        <v>77.40126617658943</v>
+        <v>57.25726207405192</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>74.27394229066662</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36382,16 +36382,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>77.40126617658959</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>77.40126617658959</v>
       </c>
       <c r="U23" t="n">
-        <v>77.40126617658943</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36592,37 +36592,37 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>157.4707519241424</v>
+        <v>83.56163773143462</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>226.2270582059105</v>
       </c>
       <c r="L26" t="n">
         <v>42.3533381824043</v>
       </c>
       <c r="M26" t="n">
-        <v>313.1490523519865</v>
+        <v>313.1490523519867</v>
       </c>
       <c r="N26" t="n">
-        <v>256.6917140463517</v>
+        <v>307.47201564804</v>
       </c>
       <c r="O26" t="n">
-        <v>266.2544741649594</v>
+        <v>266.2544741649596</v>
       </c>
       <c r="P26" t="n">
-        <v>217.3532877907523</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>143.831773558336</v>
+        <v>143.8317735583362</v>
       </c>
       <c r="R26" t="n">
-        <v>40.04725578594449</v>
+        <v>40.0472557859446</v>
       </c>
       <c r="S26" t="n">
-        <v>8.639355450553683</v>
+        <v>8.639355450553797</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>14.2550421758595</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>34.70783856483288</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>0.4441132925665149</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36698,7 +36698,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>34.26372527226601</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -36729,7 +36729,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>13.55285233838765</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>97.37459961091066</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36765,10 +36765,10 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>18.44167288887693</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>89.22858735457916</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36780,7 +36780,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>13.03483280682045</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -36829,37 +36829,37 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>157.4707519241424</v>
+        <v>157.4707519241427</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>42.3533381824043</v>
+        <v>279.2085051469005</v>
       </c>
       <c r="M29" t="n">
-        <v>248.1137085744389</v>
+        <v>313.1490523519868</v>
       </c>
       <c r="N29" t="n">
-        <v>307.4720156480399</v>
+        <v>149.413278464329</v>
       </c>
       <c r="O29" t="n">
-        <v>266.2544741649594</v>
+        <v>266.2544741649597</v>
       </c>
       <c r="P29" t="n">
-        <v>217.3532877907523</v>
+        <v>217.3532877907525</v>
       </c>
       <c r="Q29" t="n">
-        <v>143.831773558336</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.04725578594449</v>
+        <v>40.04725578594471</v>
       </c>
       <c r="S29" t="n">
-        <v>8.639355450553683</v>
+        <v>8.639355450553911</v>
       </c>
       <c r="T29" t="n">
-        <v>14.25504217585938</v>
+        <v>14.25504217585961</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -36929,10 +36929,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>34.70783856483218</v>
       </c>
       <c r="R30" t="n">
-        <v>34.70783856483288</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36963,13 +36963,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22.00854933516908</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>22.00854933516816</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>93.80772316461852</v>
+        <v>93.80772316461875</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37066,37 +37066,37 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>157.4707519241426</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>226.2270582059106</v>
       </c>
       <c r="L32" t="n">
         <v>279.2085051469004</v>
       </c>
       <c r="M32" t="n">
-        <v>313.1490523519866</v>
+        <v>76.29388538749055</v>
       </c>
       <c r="N32" t="n">
-        <v>307.47201564804</v>
+        <v>233.5629014553311</v>
       </c>
       <c r="O32" t="n">
-        <v>121.8347153470581</v>
+        <v>266.2544741649596</v>
       </c>
       <c r="P32" t="n">
-        <v>217.3532877907523</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>143.8317735583361</v>
+        <v>143.8317735583362</v>
       </c>
       <c r="R32" t="n">
-        <v>40.04725578594457</v>
+        <v>40.04725578594466</v>
       </c>
       <c r="S32" t="n">
-        <v>8.639355450553769</v>
+        <v>8.639355450553854</v>
       </c>
       <c r="T32" t="n">
-        <v>14.25504217585947</v>
+        <v>14.25504217585955</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>34.70783856483235</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.70783856483261</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.84672462982081</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>106.8920833739033</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>21.96954786996652</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37254,7 +37254,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>8.924189125883801</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -37300,25 +37300,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.960948456208344</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>61.19397315513969</v>
+        <v>170.7685797866436</v>
       </c>
       <c r="K35" t="n">
-        <v>239.5248860684114</v>
+        <v>239.5248860684115</v>
       </c>
       <c r="L35" t="n">
-        <v>289.8608552530099</v>
+        <v>193.8928256437399</v>
       </c>
       <c r="M35" t="n">
-        <v>322.641967773228</v>
+        <v>322.6419677732277</v>
       </c>
       <c r="N35" t="n">
-        <v>263.3045197935963</v>
+        <v>37.36903649157537</v>
       </c>
       <c r="O35" t="n">
-        <v>32.79378456920151</v>
+        <v>263.8444828759491</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37327,13 +37327,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>10.76084357075294</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>21.93718331305475</v>
+        <v>21.93718331305483</v>
       </c>
       <c r="T35" t="n">
-        <v>27.55287003836045</v>
+        <v>27.55287003836053</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>16.88765304562241</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37412,10 +37412,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>3.963807197092038</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>12.9238458485303</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>80.25918246310151</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>80.25918246310133</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.960948456208344</v>
+        <v>7.960948456208429</v>
       </c>
       <c r="J38" t="n">
-        <v>25.93204114021858</v>
+        <v>170.7685797866436</v>
       </c>
       <c r="K38" t="n">
-        <v>239.5248860684114</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>21.86186598070951</v>
+        <v>21.8618659807096</v>
       </c>
       <c r="M38" t="n">
-        <v>322.6419677732279</v>
+        <v>322.6419677732277</v>
       </c>
       <c r="N38" t="n">
-        <v>70.61684868354396</v>
+        <v>320.7698435105411</v>
       </c>
       <c r="O38" t="n">
-        <v>279.5523020274605</v>
+        <v>121.9795571435725</v>
       </c>
       <c r="P38" t="n">
-        <v>230.6511156532533</v>
+        <v>230.6511156532534</v>
       </c>
       <c r="Q38" t="n">
-        <v>29.2998028565142</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>53.34508364844564</v>
       </c>
       <c r="S38" t="n">
-        <v>21.93718331305475</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>27.55287003836045</v>
+        <v>27.55287003836053</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.88765304562242</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>7.383579134027437</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37655,7 +37655,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>9.504073911594901</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>34.15466932060281</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37719,16 +37719,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>79.44189302510955</v>
       </c>
       <c r="R40" t="n">
-        <v>46.10451314249869</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>0.8172894379917822</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37774,43 +37774,43 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>7.960948456208344</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>170.7685797866435</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>239.5248860684114</v>
+        <v>20.38049652388462</v>
       </c>
       <c r="L41" t="n">
-        <v>292.5063330094014</v>
+        <v>292.5063330094015</v>
       </c>
       <c r="M41" t="n">
-        <v>86.09948740804907</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>37.36903649157529</v>
+        <v>237.0610864339566</v>
       </c>
       <c r="O41" t="n">
-        <v>29.39930720046343</v>
+        <v>279.5523020274606</v>
       </c>
       <c r="P41" t="n">
-        <v>230.6511156532533</v>
+        <v>230.6511156532534</v>
       </c>
       <c r="Q41" t="n">
-        <v>144.9384243078439</v>
+        <v>157.1296014208372</v>
       </c>
       <c r="R41" t="n">
-        <v>10.76084357075294</v>
+        <v>10.76084357075305</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>21.93718331305486</v>
       </c>
       <c r="T41" t="n">
-        <v>27.55287003836045</v>
+        <v>27.55287003836056</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.063836518877537e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>16.88765304562242</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>16.88765304562231</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>80.2591824631015</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>80.25918246310127</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>7.960948456208344</v>
       </c>
       <c r="J44" t="n">
-        <v>170.7685797866435</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>29.47865872229669</v>
+        <v>239.5248860684114</v>
       </c>
       <c r="L44" t="n">
         <v>292.5063330094014</v>
       </c>
       <c r="M44" t="n">
-        <v>274.3421150498446</v>
+        <v>20.26021172608807</v>
       </c>
       <c r="N44" t="n">
         <v>320.769843510541</v>
       </c>
       <c r="O44" t="n">
-        <v>29.39930720046343</v>
+        <v>279.5523020274605</v>
       </c>
       <c r="P44" t="n">
-        <v>108.0194803547459</v>
+        <v>22.12555275813255</v>
       </c>
       <c r="Q44" t="n">
         <v>19.54948747321888</v>
       </c>
       <c r="R44" t="n">
-        <v>10.76084357075294</v>
+        <v>53.34508364844555</v>
       </c>
       <c r="S44" t="n">
         <v>21.93718331305475</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>16.88765304562242</v>
       </c>
       <c r="M45" t="n">
-        <v>16.88765304562242</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>80.25918246310151</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>80.2591824631015</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
